--- a/travelBD.xlsx
+++ b/travelBD.xlsx
@@ -450,10 +450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="A708" sqref="A708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -491,7 +492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>191000</v>
       </c>
@@ -514,7 +515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>130000</v>
       </c>
@@ -537,7 +538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>158000</v>
       </c>
@@ -560,7 +561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>236000</v>
       </c>
@@ -583,7 +584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>196000</v>
       </c>
@@ -606,7 +607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>179000</v>
       </c>
@@ -629,7 +630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>151000</v>
       </c>
@@ -652,7 +653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>187000</v>
       </c>
@@ -698,7 +699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>141000</v>
       </c>
@@ -721,7 +722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>208000</v>
       </c>
@@ -744,7 +745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>203000</v>
       </c>
@@ -767,7 +768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>139000</v>
       </c>
@@ -813,7 +814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>122000</v>
       </c>
@@ -836,7 +837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>140000</v>
       </c>
@@ -859,7 +860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>199000</v>
       </c>
@@ -882,7 +883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>60000</v>
       </c>
@@ -905,7 +906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>212000</v>
       </c>
@@ -928,7 +929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>154000</v>
       </c>
@@ -951,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>149000</v>
       </c>
@@ -974,7 +975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>185000</v>
       </c>
@@ -997,7 +998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>196000</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>186000</v>
       </c>
@@ -1043,7 +1044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>189000</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>164000</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>182000</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>183000</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>155000</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>161000</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>195000</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>211000</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>139000</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>155000</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>100000</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>202000</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>190000</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>132000</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>177000</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>152000</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>172000</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>183000</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>61000</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>189000</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>183000</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>163000</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>166000</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>167000</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>177000</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>185000</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>212000</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>132000</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>155000</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>128000</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>110000</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>138000</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>189000</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>172000</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>164000</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>182000</v>
       </c>
@@ -1917,9 +1918,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
-        <v>186000</v>
+        <v>86000</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>19</v>
@@ -1940,7 +1941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>183000</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>179000</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>112000</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>176000</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>170000</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>173000</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>160000</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>163000</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>183000</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>170000</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>228000</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>168000</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>165000</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>154000</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>190000</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>187000</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>185000</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>170000</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>198000</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>209000</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>210000</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>111000</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>169000</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>202000</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>175000</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>191000</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>227000</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>160000</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>164000</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>182000</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>212000</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>160000</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>167000</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>121000</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>198000</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>231000</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>221000</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>35000</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>77000</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>128000</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <v>62000</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>106000</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>73000</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>168000</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <v>86000</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>178000</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>104000</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>122000</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>69000</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>83000</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>37000</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>97000</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>94000</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
         <v>38000</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>45000</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10">
         <v>70000</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>41000</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
         <v>83000</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>52000</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
         <v>99000</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
         <v>113000</v>
       </c>
@@ -3389,7 +3390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10">
         <v>113000</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
         <v>5000</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10">
         <v>64000</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10">
         <v>82000</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10">
         <v>53000</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10">
         <v>64000</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10">
         <v>92000</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10">
         <v>83000</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10">
         <v>80000</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10">
         <v>137000</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10">
         <v>82000</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10">
         <v>73000</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10">
         <v>65000</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10">
         <v>143000</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10">
         <v>169000</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10">
         <v>187000</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10">
         <v>159000</v>
       </c>
@@ -3780,7 +3781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10">
         <v>67000</v>
       </c>
@@ -3803,9 +3804,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10">
-        <v>168000</v>
+        <v>68000</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>4</v>
@@ -3826,9 +3827,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10">
-        <v>214000</v>
+        <v>84000</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>4</v>
@@ -3849,7 +3850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10">
         <v>155000</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10">
         <v>86000</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10">
         <v>15000</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
         <v>61000</v>
       </c>
@@ -3941,7 +3942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10">
         <v>101000</v>
       </c>
@@ -3964,7 +3965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10">
         <v>150000</v>
       </c>
@@ -3987,9 +3988,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10">
-        <v>237000</v>
+        <v>75000</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>4</v>
@@ -4010,9 +4011,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10">
-        <v>182000</v>
+        <v>82000</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>4</v>
@@ -4033,9 +4034,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10">
-        <v>184000</v>
+        <v>84000</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>4</v>
@@ -4056,7 +4057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10">
         <v>145000</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10">
         <v>70000</v>
       </c>
@@ -4102,9 +4103,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10">
-        <v>221000</v>
+        <v>22100</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>4</v>
@@ -4125,9 +4126,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10">
-        <v>253000</v>
+        <v>25300</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>4</v>
@@ -4148,7 +4149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10">
         <v>166000</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10">
         <v>30000</v>
       </c>
@@ -4194,9 +4195,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10">
-        <v>197000</v>
+        <v>97000</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>4</v>
@@ -4217,7 +4218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10">
         <v>56000</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10">
         <v>88000</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10">
         <v>142000</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10">
         <v>77000</v>
       </c>
@@ -4309,7 +4310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10">
         <v>102000</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10">
         <v>148000</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10">
         <v>55000</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10">
         <v>83000</v>
       </c>
@@ -4401,9 +4402,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10">
-        <v>232000</v>
+        <v>67000</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>4</v>
@@ -4424,7 +4425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10">
         <v>105000</v>
       </c>
@@ -4447,9 +4448,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10">
-        <v>212000</v>
+        <v>55000</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>4</v>
@@ -4470,7 +4471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10">
         <v>171000</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10">
         <v>8000</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10">
         <v>161000</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10">
         <v>106000</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
         <v>153000</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
         <v>65000</v>
       </c>
@@ -4608,7 +4609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10">
         <v>172000</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10">
         <v>68000</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10">
         <v>106000</v>
       </c>
@@ -4677,9 +4678,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10">
-        <v>181000</v>
+        <v>81000</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>4</v>
@@ -4700,7 +4701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10">
         <v>170000</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
         <v>65000</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
         <v>161000</v>
       </c>
@@ -4769,9 +4770,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10">
-        <v>215000</v>
+        <v>58000</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>4</v>
@@ -4792,7 +4793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10">
         <v>74000</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10">
         <v>115000</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10">
         <v>105000</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10">
         <v>31000</v>
       </c>
@@ -4884,9 +4885,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10">
-        <v>172000</v>
+        <v>72000</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>4</v>
@@ -4907,7 +4908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10">
         <v>44000</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10">
         <v>144000</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10">
         <v>126000</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10">
         <v>85000</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10">
         <v>90000</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10">
         <v>108000</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="10">
         <v>93000</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10">
         <v>80000</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="10">
         <v>88000</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="10">
         <v>49000</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="10">
         <v>107000</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10">
         <v>56000</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10">
         <v>89000</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="10">
         <v>67000</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="10">
         <v>95000</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="10">
         <v>71000</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="10">
         <v>42000</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="10">
         <v>102000</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10">
         <v>103000</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="10">
         <v>56000</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="10">
         <v>91000</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="10">
         <v>55000</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="10">
         <v>60000</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="10">
         <v>69000</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="10">
         <v>108000</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="10">
         <v>98000</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="10">
         <v>57000</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="10">
         <v>92000</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="10">
         <v>96000</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="10">
         <v>70000</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="10">
         <v>78000</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="10">
         <v>50000</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="10">
         <v>99000</v>
       </c>
@@ -5689,7 +5690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="10">
         <v>103000</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="10">
         <v>90000</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="10">
         <v>71000</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="10">
         <v>57000</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="10">
         <v>93000</v>
       </c>
@@ -5804,7 +5805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="10">
         <v>121000</v>
       </c>
@@ -5827,7 +5828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="10">
         <v>107000</v>
       </c>
@@ -5850,7 +5851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="10">
         <v>90000</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10">
         <v>74000</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="10">
         <v>17000</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="10">
         <v>96000</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="10">
         <v>81000</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="10">
         <v>118000</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="10">
         <v>111000</v>
       </c>
@@ -6011,7 +6012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="10">
         <v>72000</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="10">
         <v>106000</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="10">
         <v>98000</v>
       </c>
@@ -6080,7 +6081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10">
         <v>93000</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="10">
         <v>78000</v>
       </c>
@@ -6126,7 +6127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="10">
         <v>65000</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="10">
         <v>174000</v>
       </c>
@@ -6172,7 +6173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="10">
         <v>71000</v>
       </c>
@@ -6195,7 +6196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="10">
         <v>132000</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="10">
         <v>104000</v>
       </c>
@@ -6241,7 +6242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10">
         <v>82000</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10">
         <v>50000</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="10">
         <v>104000</v>
       </c>
@@ -6310,7 +6311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="10">
         <v>85000</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="10">
         <v>109000</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="10">
         <v>122000</v>
       </c>
@@ -6379,7 +6380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10">
         <v>81000</v>
       </c>
@@ -6402,7 +6403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="10">
         <v>88000</v>
       </c>
@@ -6425,7 +6426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="10">
         <v>52000</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="10">
         <v>68000</v>
       </c>
@@ -6471,7 +6472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="10">
         <v>86000</v>
       </c>
@@ -6517,7 +6518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="10">
         <v>178000</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="10">
         <v>63000</v>
       </c>
@@ -6563,7 +6564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="10">
         <v>170000</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="10">
         <v>66000</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="10">
         <v>60000</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="10">
         <v>172000</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="10">
         <v>175000</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="10">
         <v>76000</v>
       </c>
@@ -6701,7 +6702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="10">
         <v>121000</v>
       </c>
@@ -6724,7 +6725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="10">
         <v>170000</v>
       </c>
@@ -6747,7 +6748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="10">
         <v>78000</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="10">
         <v>66000</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="10">
         <v>90000</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="10">
         <v>116000</v>
       </c>
@@ -6839,7 +6840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="10">
         <v>156000</v>
       </c>
@@ -6862,7 +6863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="10">
         <v>193000</v>
       </c>
@@ -6885,7 +6886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="10">
         <v>26000</v>
       </c>
@@ -6908,7 +6909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="10">
         <v>84000</v>
       </c>
@@ -6931,7 +6932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="10">
         <v>189000</v>
       </c>
@@ -6954,7 +6955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="10">
         <v>47000</v>
       </c>
@@ -6977,7 +6978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="10">
         <v>160000</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="10">
         <v>89000</v>
       </c>
@@ -7023,7 +7024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="10">
         <v>130000</v>
       </c>
@@ -7046,7 +7047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="10">
         <v>223000</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="10">
         <v>14000</v>
       </c>
@@ -7092,7 +7093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="10">
         <v>155000</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="10">
         <v>90000</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="10">
         <v>181000</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="10">
         <v>72000</v>
       </c>
@@ -7184,7 +7185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="10">
         <v>126000</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="10">
         <v>54000</v>
       </c>
@@ -7230,7 +7231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="10">
         <v>240000</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="10">
         <v>81000</v>
       </c>
@@ -7276,7 +7277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="10">
         <v>68000</v>
       </c>
@@ -7299,7 +7300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="10">
         <v>88000</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="10">
         <v>68000</v>
       </c>
@@ -7345,7 +7346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="10">
         <v>130000</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="10">
         <v>92000</v>
       </c>
@@ -7391,7 +7392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="10">
         <v>9000</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="10">
         <v>108000</v>
       </c>
@@ -7437,7 +7438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="10">
         <v>187000</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="10">
         <v>90000</v>
       </c>
@@ -7483,7 +7484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="10">
         <v>142000</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="10">
         <v>95000</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="10">
         <v>110000</v>
       </c>
@@ -7552,7 +7553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="10">
         <v>179000</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="10">
         <v>82000</v>
       </c>
@@ -7598,7 +7599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="10">
         <v>41000</v>
       </c>
@@ -7621,7 +7622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="10">
         <v>171000</v>
       </c>
@@ -7667,7 +7668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="10">
         <v>107000</v>
       </c>
@@ -7713,7 +7714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="10">
         <v>89000</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="10">
         <v>152000</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="10">
         <v>185000</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="10">
         <v>93000</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="10">
         <v>68000</v>
       </c>
@@ -7851,7 +7852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="10">
         <v>148000</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="10">
         <v>170000</v>
       </c>
@@ -7897,7 +7898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="10">
         <v>101000</v>
       </c>
@@ -7920,7 +7921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="10">
         <v>24000</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="10">
         <v>105000</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="10">
         <v>87000</v>
       </c>
@@ -7989,7 +7990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="10">
         <v>153000</v>
       </c>
@@ -8012,7 +8013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="10">
         <v>12000</v>
       </c>
@@ -8035,7 +8036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="10">
         <v>69000</v>
       </c>
@@ -8058,7 +8059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="10">
         <v>79000</v>
       </c>
@@ -8081,7 +8082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="10">
         <v>89000</v>
       </c>
@@ -8104,7 +8105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="10">
         <v>219000</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="10">
         <v>73000</v>
       </c>
@@ -8173,7 +8174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="10">
         <v>89000</v>
       </c>
@@ -8196,7 +8197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="10">
         <v>178000</v>
       </c>
@@ -8219,7 +8220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="10">
         <v>50000</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="10">
         <v>82000</v>
       </c>
@@ -8265,7 +8266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="10">
         <v>63000</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="10">
         <v>78000</v>
       </c>
@@ -8311,7 +8312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="10">
         <v>73000</v>
       </c>
@@ -8334,7 +8335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="10">
         <v>73000</v>
       </c>
@@ -8357,7 +8358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="10">
         <v>53000</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="10">
         <v>72000</v>
       </c>
@@ -8426,7 +8427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="10">
         <v>60000</v>
       </c>
@@ -8449,7 +8450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="10">
         <v>63000</v>
       </c>
@@ -8472,7 +8473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="10">
         <v>62000</v>
       </c>
@@ -8495,7 +8496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="10">
         <v>79000</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="10">
         <v>55000</v>
       </c>
@@ -8541,7 +8542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="10">
         <v>62000</v>
       </c>
@@ -8564,7 +8565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="10">
         <v>44000</v>
       </c>
@@ -8633,7 +8634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="10">
         <v>30000</v>
       </c>
@@ -8656,7 +8657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="10">
         <v>66000</v>
       </c>
@@ -8679,7 +8680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="10">
         <v>84000</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="10">
         <v>66000</v>
       </c>
@@ -8771,7 +8772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="10">
         <v>87000</v>
       </c>
@@ -8794,7 +8795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="10">
         <v>61000</v>
       </c>
@@ -8817,7 +8818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="10">
         <v>40000</v>
       </c>
@@ -8840,7 +8841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="10">
         <v>43000</v>
       </c>
@@ -8863,7 +8864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="10">
         <v>68000</v>
       </c>
@@ -8886,7 +8887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="10">
         <v>86000</v>
       </c>
@@ -8909,7 +8910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="10">
         <v>88000</v>
       </c>
@@ -8932,7 +8933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="10">
         <v>56000</v>
       </c>
@@ -8955,7 +8956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="10">
         <v>83000</v>
       </c>
@@ -8978,7 +8979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="10">
         <v>94000</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="10">
         <v>38000</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="10">
         <v>72000</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="10">
         <v>78000</v>
       </c>
@@ -9070,7 +9071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="10">
         <v>131000</v>
       </c>
@@ -9093,7 +9094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="10">
         <v>88000</v>
       </c>
@@ -9116,7 +9117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="10">
         <v>103000</v>
       </c>
@@ -9139,7 +9140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="10">
         <v>50000</v>
       </c>
@@ -9162,7 +9163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="10">
         <v>79000</v>
       </c>
@@ -9185,7 +9186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="10">
         <v>113000</v>
       </c>
@@ -9208,7 +9209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="10">
         <v>79000</v>
       </c>
@@ -9231,7 +9232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="10">
         <v>36000</v>
       </c>
@@ -9254,7 +9255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="10">
         <v>59000</v>
       </c>
@@ -9277,7 +9278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="10">
         <v>59000</v>
       </c>
@@ -9300,7 +9301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="10">
         <v>15000</v>
       </c>
@@ -9323,7 +9324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="10">
         <v>70000</v>
       </c>
@@ -9346,7 +9347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="10">
         <v>173000</v>
       </c>
@@ -9369,7 +9370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="10">
         <v>97000</v>
       </c>
@@ -9392,7 +9393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="10">
         <v>163000</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="10">
         <v>161000</v>
       </c>
@@ -9438,7 +9439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="10">
         <v>49000</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="10">
         <v>32000</v>
       </c>
@@ -9484,7 +9485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="10">
         <v>207000</v>
       </c>
@@ -9507,7 +9508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="10">
         <v>148000</v>
       </c>
@@ -9530,7 +9531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="10">
         <v>170000</v>
       </c>
@@ -9553,9 +9554,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="10">
-        <v>196000</v>
+        <v>96000</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>21</v>
@@ -9576,7 +9577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="10">
         <v>173000</v>
       </c>
@@ -9622,7 +9623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="10">
         <v>173000</v>
       </c>
@@ -9645,7 +9646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="10">
         <v>77000</v>
       </c>
@@ -9668,7 +9669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="10">
         <v>182000</v>
       </c>
@@ -9691,9 +9692,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="10">
-        <v>174000</v>
+        <v>74000</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>21</v>
@@ -9714,9 +9715,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="10">
-        <v>190000</v>
+        <v>19000</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>21</v>
@@ -9737,9 +9738,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="10">
-        <v>196000</v>
+        <v>96000</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>21</v>
@@ -9760,7 +9761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="10">
         <v>136000</v>
       </c>
@@ -9783,7 +9784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="10">
         <v>154000</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="10">
         <v>78000</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="10">
         <v>206000</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="10">
         <v>142000</v>
       </c>
@@ -9875,7 +9876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="10">
         <v>45000</v>
       </c>
@@ -9898,7 +9899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="10">
         <v>85000</v>
       </c>
@@ -9921,7 +9922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="10">
         <v>58000</v>
       </c>
@@ -9944,7 +9945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="10">
         <v>42000</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="10">
         <v>52000</v>
       </c>
@@ -9990,7 +9991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="10">
         <v>187000</v>
       </c>
@@ -10013,9 +10014,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="10">
-        <v>215000</v>
+        <v>65000</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>21</v>
@@ -10036,7 +10037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="10">
         <v>49000</v>
       </c>
@@ -10059,7 +10060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="10">
         <v>56000</v>
       </c>
@@ -10082,7 +10083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="10">
         <v>122000</v>
       </c>
@@ -10105,7 +10106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="10">
         <v>68000</v>
       </c>
@@ -10128,7 +10129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="10">
         <v>78000</v>
       </c>
@@ -10151,7 +10152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="10">
         <v>69000</v>
       </c>
@@ -10174,7 +10175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="10">
         <v>80000</v>
       </c>
@@ -10197,7 +10198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="10">
         <v>30000</v>
       </c>
@@ -10220,7 +10221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="10">
         <v>45000</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="10">
         <v>46000</v>
       </c>
@@ -10266,7 +10267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="10">
         <v>101000</v>
       </c>
@@ -10289,7 +10290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="10">
         <v>44000</v>
       </c>
@@ -10312,7 +10313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="10">
         <v>76000</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="10">
         <v>68000</v>
       </c>
@@ -10358,7 +10359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="10">
         <v>45000</v>
       </c>
@@ -10381,7 +10382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="10">
         <v>74000</v>
       </c>
@@ -10404,7 +10405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="10">
         <v>39000</v>
       </c>
@@ -10427,7 +10428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="10">
         <v>57000</v>
       </c>
@@ -10450,7 +10451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="10">
         <v>55000</v>
       </c>
@@ -10473,7 +10474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="10">
         <v>57000</v>
       </c>
@@ -10496,7 +10497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="10">
         <v>130000</v>
       </c>
@@ -10519,7 +10520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="10">
         <v>49000</v>
       </c>
@@ -10542,7 +10543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="10">
         <v>66000</v>
       </c>
@@ -10565,7 +10566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="10">
         <v>63000</v>
       </c>
@@ -10588,7 +10589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="10">
         <v>131000</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="10">
         <v>39000</v>
       </c>
@@ -10657,7 +10658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="10">
         <v>120000</v>
       </c>
@@ -10680,7 +10681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="10">
         <v>195000</v>
       </c>
@@ -10726,7 +10727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="10">
         <v>23000</v>
       </c>
@@ -10772,7 +10773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="10">
         <v>182000</v>
       </c>
@@ -10795,7 +10796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="10">
         <v>175000</v>
       </c>
@@ -10818,7 +10819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="10">
         <v>150000</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="10">
         <v>233000</v>
       </c>
@@ -10864,7 +10865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="10">
         <v>161000</v>
       </c>
@@ -10887,7 +10888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="10">
         <v>207000</v>
       </c>
@@ -10910,7 +10911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="10">
         <v>56000</v>
       </c>
@@ -10933,7 +10934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="10">
         <v>205000</v>
       </c>
@@ -10956,7 +10957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="10">
         <v>168000</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="10">
         <v>56000</v>
       </c>
@@ -11048,7 +11049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="10">
         <v>182000</v>
       </c>
@@ -11071,7 +11072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="10">
         <v>94000</v>
       </c>
@@ -11117,7 +11118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="10">
         <v>103000</v>
       </c>
@@ -11140,7 +11141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="10">
         <v>86000</v>
       </c>
@@ -11163,7 +11164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="10">
         <v>129000</v>
       </c>
@@ -11186,7 +11187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="10">
         <v>116000</v>
       </c>
@@ -11209,7 +11210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="10">
         <v>107000</v>
       </c>
@@ -11232,7 +11233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="10">
         <v>72000</v>
       </c>
@@ -11255,7 +11256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="10">
         <v>94000</v>
       </c>
@@ -11278,7 +11279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="10">
         <v>85000</v>
       </c>
@@ -11301,7 +11302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="10">
         <v>103000</v>
       </c>
@@ -11324,7 +11325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="10">
         <v>77000</v>
       </c>
@@ -11347,7 +11348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="10">
         <v>138000</v>
       </c>
@@ -11370,7 +11371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="10">
         <v>133000</v>
       </c>
@@ -11393,7 +11394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="10">
         <v>113000</v>
       </c>
@@ -11416,7 +11417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="10">
         <v>85000</v>
       </c>
@@ -11439,7 +11440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="10">
         <v>64000</v>
       </c>
@@ -11462,7 +11463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="10">
         <v>43000</v>
       </c>
@@ -11485,7 +11486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="10">
         <v>67000</v>
       </c>
@@ -11508,7 +11509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="10">
         <v>88000</v>
       </c>
@@ -11531,7 +11532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="10">
         <v>80000</v>
       </c>
@@ -11554,7 +11555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="10">
         <v>85000</v>
       </c>
@@ -11577,7 +11578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="10">
         <v>138000</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="10">
         <v>75000</v>
       </c>
@@ -11646,7 +11647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="10">
         <v>58000</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="10">
         <v>90000</v>
       </c>
@@ -11692,7 +11693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="10">
         <v>114000</v>
       </c>
@@ -11715,7 +11716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="10">
         <v>81000</v>
       </c>
@@ -11738,7 +11739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="10">
         <v>74000</v>
       </c>
@@ -11761,7 +11762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="10">
         <v>60000</v>
       </c>
@@ -11784,7 +11785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="10">
         <v>86000</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="10">
         <v>79000</v>
       </c>
@@ -11830,7 +11831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="10">
         <v>75000</v>
       </c>
@@ -11853,7 +11854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="10">
         <v>83000</v>
       </c>
@@ -11876,7 +11877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="10">
         <v>79000</v>
       </c>
@@ -11899,7 +11900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="10">
         <v>46000</v>
       </c>
@@ -11922,7 +11923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="10">
         <v>36000</v>
       </c>
@@ -11945,7 +11946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="10">
         <v>71000</v>
       </c>
@@ -11968,7 +11969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="10">
         <v>83000</v>
       </c>
@@ -11991,7 +11992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="10">
         <v>98000</v>
       </c>
@@ -12014,7 +12015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="10">
         <v>30000</v>
       </c>
@@ -12037,7 +12038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="10">
         <v>66000</v>
       </c>
@@ -12060,7 +12061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="10">
         <v>96000</v>
       </c>
@@ -12083,7 +12084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="10">
         <v>21000</v>
       </c>
@@ -12106,7 +12107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="10">
         <v>64000</v>
       </c>
@@ -12129,7 +12130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="10">
         <v>113000</v>
       </c>
@@ -12152,7 +12153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="10">
         <v>72000</v>
       </c>
@@ -12175,7 +12176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="10">
         <v>51000</v>
       </c>
@@ -12198,7 +12199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="10">
         <v>47000</v>
       </c>
@@ -12221,7 +12222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="10">
         <v>106000</v>
       </c>
@@ -12244,7 +12245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="10">
         <v>54000</v>
       </c>
@@ -12267,7 +12268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="10">
         <v>73000</v>
       </c>
@@ -12290,7 +12291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="10">
         <v>130000</v>
       </c>
@@ -12313,7 +12314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="10">
         <v>65000</v>
       </c>
@@ -12336,7 +12337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="10">
         <v>88000</v>
       </c>
@@ -12359,7 +12360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="10">
         <v>133000</v>
       </c>
@@ -12382,7 +12383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="10">
         <v>121000</v>
       </c>
@@ -12405,9 +12406,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="10">
-        <v>199000</v>
+        <v>99000</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>30</v>
@@ -12428,7 +12429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="10">
         <v>164000</v>
       </c>
@@ -12451,7 +12452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="10">
         <v>138000</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="10">
         <v>155000</v>
       </c>
@@ -12497,7 +12498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="10">
         <v>164000</v>
       </c>
@@ -12520,7 +12521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="10">
         <v>69000</v>
       </c>
@@ -12543,15 +12544,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="10">
-        <v>227000</v>
+        <v>25000</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C526" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D526" s="3" t="s">
         <v>13</v>
@@ -12566,7 +12567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="10">
         <v>47000</v>
       </c>
@@ -12589,7 +12590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="10">
         <v>188000</v>
       </c>
@@ -12612,7 +12613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="10">
         <v>63000</v>
       </c>
@@ -12635,9 +12636,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="10">
-        <v>220000</v>
+        <v>88000</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>30</v>
@@ -12658,7 +12659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="10">
         <v>57000</v>
       </c>
@@ -12681,7 +12682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="10">
         <v>115000</v>
       </c>
@@ -12704,7 +12705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="10">
         <v>94000</v>
       </c>
@@ -12727,7 +12728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="10">
         <v>148000</v>
       </c>
@@ -12750,7 +12751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="10">
         <v>99000</v>
       </c>
@@ -12773,7 +12774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="10">
         <v>197000</v>
       </c>
@@ -12796,7 +12797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="10">
         <v>119000</v>
       </c>
@@ -12819,7 +12820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="10">
         <v>151000</v>
       </c>
@@ -12842,7 +12843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="10">
         <v>85000</v>
       </c>
@@ -12865,7 +12866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="10">
         <v>152000</v>
       </c>
@@ -12888,9 +12889,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="10">
-        <v>196000</v>
+        <v>96000</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>30</v>
@@ -12911,7 +12912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="10">
         <v>57000</v>
       </c>
@@ -12934,7 +12935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="10">
         <v>87000</v>
       </c>
@@ -12957,7 +12958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="10">
         <v>43000</v>
       </c>
@@ -12980,7 +12981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="10">
         <v>129000</v>
       </c>
@@ -13003,7 +13004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="10">
         <v>24000</v>
       </c>
@@ -13026,7 +13027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="10">
         <v>38000</v>
       </c>
@@ -13049,7 +13050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="10">
         <v>53000</v>
       </c>
@@ -13072,7 +13073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="10">
         <v>110000</v>
       </c>
@@ -13095,9 +13096,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="10">
-        <v>177000</v>
+        <v>77000</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>30</v>
@@ -13118,7 +13119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="10">
         <v>175000</v>
       </c>
@@ -13141,7 +13142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="10">
         <v>84000</v>
       </c>
@@ -13164,7 +13165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="10">
         <v>79000</v>
       </c>
@@ -13187,7 +13188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="10">
         <v>196000</v>
       </c>
@@ -13210,7 +13211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="10">
         <v>54000</v>
       </c>
@@ -13233,9 +13234,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="10">
-        <v>208000</v>
+        <v>87000</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>30</v>
@@ -13256,7 +13257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="10">
         <v>75000</v>
       </c>
@@ -13279,7 +13280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="10">
         <v>101000</v>
       </c>
@@ -13302,7 +13303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="10">
         <v>102000</v>
       </c>
@@ -13325,7 +13326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="10">
         <v>97000</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="10">
         <v>116000</v>
       </c>
@@ -13371,7 +13372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="10">
         <v>70000</v>
       </c>
@@ -13394,9 +13395,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="10">
-        <v>216000</v>
+        <v>76000</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>30</v>
@@ -13417,9 +13418,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="10">
-        <v>204000</v>
+        <v>54000</v>
       </c>
       <c r="B564" s="3" t="s">
         <v>30</v>
@@ -13440,9 +13441,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="10">
-        <v>165000</v>
+        <v>65000</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>30</v>
@@ -13463,9 +13464,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="10">
-        <v>218000</v>
+        <v>43000</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>30</v>
@@ -13486,7 +13487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="10">
         <v>183000</v>
       </c>
@@ -13509,7 +13510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="10">
         <v>161000</v>
       </c>
@@ -13532,7 +13533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="10">
         <v>142000</v>
       </c>
@@ -13555,9 +13556,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="10">
-        <v>229000</v>
+        <v>69000</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>30</v>
@@ -13578,9 +13579,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="10">
-        <v>191000</v>
+        <v>91000</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>30</v>
@@ -13601,7 +13602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="10">
         <v>42000</v>
       </c>
@@ -13624,7 +13625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="10">
         <v>117000</v>
       </c>
@@ -13647,7 +13648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="10">
         <v>174000</v>
       </c>
@@ -13670,9 +13671,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="10">
-        <v>208000</v>
+        <v>78000</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>30</v>
@@ -13693,9 +13694,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="10">
-        <v>233000</v>
+        <v>73000</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>30</v>
@@ -13716,7 +13717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="10">
         <v>181000</v>
       </c>
@@ -13739,7 +13740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="10">
         <v>175000</v>
       </c>
@@ -13762,7 +13763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="10">
         <v>129000</v>
       </c>
@@ -13785,7 +13786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="10">
         <v>67000</v>
       </c>
@@ -13808,7 +13809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="10">
         <v>174000</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="10">
         <v>46000</v>
       </c>
@@ -13854,7 +13855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="10">
         <v>91000</v>
       </c>
@@ -13877,7 +13878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="10">
         <v>100000</v>
       </c>
@@ -13900,7 +13901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="10">
         <v>73000</v>
       </c>
@@ -13923,7 +13924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="10">
         <v>91000</v>
       </c>
@@ -13946,7 +13947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="10">
         <v>124000</v>
       </c>
@@ -13969,7 +13970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="10">
         <v>90000</v>
       </c>
@@ -13992,7 +13993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="10">
         <v>75000</v>
       </c>
@@ -14015,7 +14016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="10">
         <v>66000</v>
       </c>
@@ -14038,7 +14039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="10">
         <v>61000</v>
       </c>
@@ -14061,7 +14062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="10">
         <v>58000</v>
       </c>
@@ -14084,7 +14085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="10">
         <v>123000</v>
       </c>
@@ -14107,7 +14108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="10">
         <v>95000</v>
       </c>
@@ -14130,7 +14131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="10">
         <v>150000</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="10">
         <v>81000</v>
       </c>
@@ -14176,7 +14177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="10">
         <v>105000</v>
       </c>
@@ -14199,7 +14200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="10">
         <v>90000</v>
       </c>
@@ -14222,7 +14223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="10">
         <v>92000</v>
       </c>
@@ -14245,7 +14246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="10">
         <v>62000</v>
       </c>
@@ -14268,9 +14269,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="10">
-        <v>3000</v>
+        <v>53000</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>30</v>
@@ -14291,7 +14292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="10">
         <v>18000</v>
       </c>
@@ -14314,7 +14315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="10">
         <v>73000</v>
       </c>
@@ -14337,7 +14338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="10">
         <v>61000</v>
       </c>
@@ -14360,7 +14361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="10">
         <v>29000</v>
       </c>
@@ -14383,7 +14384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="606" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="10">
         <v>24000</v>
       </c>
@@ -14406,7 +14407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="10">
         <v>37000</v>
       </c>
@@ -14429,7 +14430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="10">
         <v>58000</v>
       </c>
@@ -14452,7 +14453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="10">
         <v>43000</v>
       </c>
@@ -14475,7 +14476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="10">
         <v>90000</v>
       </c>
@@ -14498,7 +14499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="10">
         <v>57000</v>
       </c>
@@ -14521,7 +14522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="10">
         <v>92000</v>
       </c>
@@ -14544,7 +14545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="10">
         <v>89000</v>
       </c>
@@ -14567,7 +14568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="10">
         <v>92000</v>
       </c>
@@ -14590,7 +14591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="10">
         <v>63000</v>
       </c>
@@ -14613,7 +14614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="10">
         <v>84000</v>
       </c>
@@ -14636,7 +14637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="10">
         <v>51000</v>
       </c>
@@ -14659,7 +14660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="10">
         <v>104000</v>
       </c>
@@ -14682,7 +14683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="10">
         <v>102000</v>
       </c>
@@ -14705,7 +14706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="10">
         <v>58000</v>
       </c>
@@ -14728,7 +14729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="10">
         <v>74000</v>
       </c>
@@ -14751,7 +14752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="10">
         <v>87000</v>
       </c>
@@ -14774,7 +14775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="10">
         <v>78000</v>
       </c>
@@ -14797,7 +14798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="624" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="10">
         <v>99000</v>
       </c>
@@ -14820,7 +14821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="10">
         <v>74000</v>
       </c>
@@ -14843,7 +14844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="10">
         <v>102000</v>
       </c>
@@ -14866,7 +14867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="10">
         <v>64000</v>
       </c>
@@ -14889,7 +14890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="10">
         <v>76000</v>
       </c>
@@ -14912,7 +14913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="10">
         <v>64000</v>
       </c>
@@ -14935,7 +14936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="10">
         <v>58000</v>
       </c>
@@ -14958,7 +14959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="10">
         <v>77000</v>
       </c>
@@ -14981,7 +14982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="10">
         <v>65000</v>
       </c>
@@ -15004,7 +15005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="10">
         <v>126000</v>
       </c>
@@ -15027,7 +15028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="634" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="10">
         <v>66000</v>
       </c>
@@ -15050,7 +15051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="10">
         <v>69000</v>
       </c>
@@ -15073,7 +15074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="636" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="10">
         <v>93000</v>
       </c>
@@ -15096,7 +15097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="10">
         <v>97000</v>
       </c>
@@ -15119,7 +15120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="10">
         <v>93000</v>
       </c>
@@ -15142,7 +15143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="10">
         <v>128000</v>
       </c>
@@ -15165,7 +15166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="10">
         <v>61000</v>
       </c>
@@ -15188,7 +15189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="10">
         <v>57000</v>
       </c>
@@ -15211,7 +15212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="642" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="10">
         <v>65000</v>
       </c>
@@ -15234,7 +15235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="10">
         <v>49000</v>
       </c>
@@ -15257,7 +15258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="10">
         <v>68000</v>
       </c>
@@ -15280,7 +15281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="10">
         <v>105000</v>
       </c>
@@ -15303,7 +15304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="10">
         <v>55000</v>
       </c>
@@ -15326,7 +15327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="10">
         <v>99000</v>
       </c>
@@ -15349,7 +15350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="10">
         <v>63000</v>
       </c>
@@ -15372,7 +15373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="10">
         <v>127000</v>
       </c>
@@ -15395,7 +15396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="650" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="10">
         <v>59000</v>
       </c>
@@ -15418,7 +15419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="10">
         <v>124000</v>
       </c>
@@ -15441,7 +15442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="10">
         <v>85000</v>
       </c>
@@ -15464,7 +15465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="653" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="10">
         <v>78000</v>
       </c>
@@ -15487,7 +15488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="10">
         <v>60000</v>
       </c>
@@ -15510,7 +15511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="655" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="10">
         <v>69000</v>
       </c>
@@ -15533,7 +15534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="656" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="10">
         <v>138000</v>
       </c>
@@ -15556,7 +15557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="10">
         <v>76000</v>
       </c>
@@ -15579,7 +15580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="10">
         <v>134000</v>
       </c>
@@ -15602,7 +15603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="10">
         <v>76000</v>
       </c>
@@ -15625,7 +15626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="10">
         <v>59000</v>
       </c>
@@ -15648,7 +15649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="10">
         <v>84000</v>
       </c>
@@ -15671,7 +15672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="10">
         <v>99000</v>
       </c>
@@ -15694,7 +15695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="10">
         <v>59000</v>
       </c>
@@ -15717,7 +15718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="10">
         <v>149000</v>
       </c>
@@ -15740,7 +15741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="10">
         <v>66000</v>
       </c>
@@ -15763,7 +15764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="10">
         <v>74000</v>
       </c>
@@ -15786,7 +15787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="10">
         <v>31000</v>
       </c>
@@ -15809,7 +15810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="10">
         <v>208000</v>
       </c>
@@ -15832,7 +15833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="10">
         <v>103000</v>
       </c>
@@ -15855,7 +15856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="10">
         <v>169000</v>
       </c>
@@ -15878,7 +15879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="10">
         <v>201000</v>
       </c>
@@ -15901,7 +15902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="10">
         <v>100000</v>
       </c>
@@ -15924,7 +15925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="10">
         <v>94000</v>
       </c>
@@ -15947,7 +15948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="10">
         <v>81000</v>
       </c>
@@ -15970,7 +15971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="675" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="10">
         <v>7000</v>
       </c>
@@ -15993,7 +15994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="676" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="10">
         <v>52000</v>
       </c>
@@ -16016,7 +16017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="10">
         <v>67000</v>
       </c>
@@ -16039,7 +16040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="10">
         <v>149000</v>
       </c>
@@ -16062,7 +16063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="679" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="10">
         <v>105000</v>
       </c>
@@ -16085,7 +16086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="10">
         <v>81000</v>
       </c>
@@ -16108,7 +16109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="10">
         <v>58000</v>
       </c>
@@ -16131,7 +16132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="682" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="10">
         <v>89000</v>
       </c>
@@ -16154,7 +16155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="10">
         <v>84000</v>
       </c>
@@ -16177,7 +16178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="10">
         <v>57000</v>
       </c>
@@ -16200,7 +16201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="10">
         <v>75000</v>
       </c>
@@ -16223,7 +16224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="10">
         <v>184000</v>
       </c>
@@ -16246,7 +16247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="10">
         <v>203000</v>
       </c>
@@ -16269,7 +16270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="10">
         <v>93000</v>
       </c>
@@ -16292,7 +16293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="10">
         <v>86000</v>
       </c>
@@ -16315,7 +16316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="10">
         <v>164000</v>
       </c>
@@ -16338,7 +16339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="10">
         <v>37000</v>
       </c>
@@ -16361,7 +16362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="10">
         <v>180000</v>
       </c>
@@ -16384,7 +16385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="10">
         <v>80000</v>
       </c>
@@ -16407,7 +16408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="10">
         <v>155000</v>
       </c>
@@ -16430,7 +16431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="10">
         <v>33000</v>
       </c>
@@ -16453,7 +16454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="10">
         <v>186000</v>
       </c>
@@ -16476,7 +16477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="10">
         <v>61000</v>
       </c>
@@ -16499,7 +16500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="10">
         <v>57000</v>
       </c>
@@ -16522,7 +16523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="10">
         <v>178000</v>
       </c>
@@ -16545,7 +16546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="700" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="10">
         <v>133000</v>
       </c>
@@ -16568,7 +16569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="10">
         <v>146000</v>
       </c>
@@ -16591,7 +16592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="10">
         <v>59000</v>
       </c>
@@ -16614,7 +16615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="10">
         <v>86000</v>
       </c>
@@ -16637,7 +16638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="10">
         <v>70000</v>
       </c>
@@ -16660,7 +16661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="10">
         <v>181000</v>
       </c>
@@ -16683,7 +16684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="10">
         <v>90000</v>
       </c>
@@ -16706,7 +16707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="707" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="10">
         <v>177000</v>
       </c>
@@ -16731,7 +16732,7 @@
     </row>
     <row r="708" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="10">
-        <v>185000</v>
+        <v>85000</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>30</v>
@@ -16752,7 +16753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="10">
         <v>175000</v>
       </c>
@@ -16775,7 +16776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="10">
         <v>166000</v>
       </c>
@@ -16798,7 +16799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="10">
         <v>208000</v>
       </c>
@@ -16821,7 +16822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="10">
         <v>6000</v>
       </c>
@@ -16844,7 +16845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="10">
         <v>27000</v>
       </c>
@@ -16867,7 +16868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="10">
         <v>114000</v>
       </c>
@@ -16890,7 +16891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="10">
         <v>179000</v>
       </c>
@@ -16913,7 +16914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="10">
         <v>169000</v>
       </c>
@@ -16936,7 +16937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="10">
         <v>47000</v>
       </c>
@@ -16982,7 +16983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="10">
         <v>28000</v>
       </c>
@@ -17005,7 +17006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="10">
         <v>170000</v>
       </c>
@@ -17028,7 +17029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="10">
         <v>160000</v>
       </c>
@@ -17051,7 +17052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="10">
         <v>210000</v>
       </c>
@@ -17074,7 +17075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="723" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="10">
         <v>182000</v>
       </c>
@@ -17097,7 +17098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="10">
         <v>192000</v>
       </c>
@@ -17120,7 +17121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="10">
         <v>52000</v>
       </c>
@@ -17143,7 +17144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="10">
         <v>59000</v>
       </c>
@@ -17166,7 +17167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="10">
         <v>32000</v>
       </c>
@@ -17189,7 +17190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="10">
         <v>173000</v>
       </c>
@@ -17212,7 +17213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="729" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="10">
         <v>44000</v>
       </c>
@@ -17235,7 +17236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="10">
         <v>102000</v>
       </c>
@@ -17281,7 +17282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="10">
         <v>81000</v>
       </c>
@@ -17327,7 +17328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="10">
         <v>227000</v>
       </c>
@@ -17350,7 +17351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="10">
         <v>165000</v>
       </c>
@@ -17373,7 +17374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="736" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="10">
         <v>66000</v>
       </c>
@@ -17396,7 +17397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="737" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="10">
         <v>72000</v>
       </c>
@@ -17419,7 +17420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="10">
         <v>106000</v>
       </c>
@@ -17442,7 +17443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="10">
         <v>100000</v>
       </c>
@@ -17465,7 +17466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="10">
         <v>74000</v>
       </c>
@@ -17488,7 +17489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="741" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="10">
         <v>84000</v>
       </c>
@@ -17511,7 +17512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="10">
         <v>88000</v>
       </c>
@@ -17534,7 +17535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="10">
         <v>65000</v>
       </c>
@@ -17557,7 +17558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="10">
         <v>54000</v>
       </c>
@@ -17580,7 +17581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="10">
         <v>94000</v>
       </c>
@@ -17603,7 +17604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="10">
         <v>95000</v>
       </c>
@@ -17626,7 +17627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="10">
         <v>87000</v>
       </c>
@@ -17649,7 +17650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="10">
         <v>84000</v>
       </c>
@@ -17672,7 +17673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="10">
         <v>75000</v>
       </c>
@@ -17695,7 +17696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="10">
         <v>50000</v>
       </c>
@@ -17718,7 +17719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="10">
         <v>67000</v>
       </c>
@@ -17741,7 +17742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="10">
         <v>70000</v>
       </c>
@@ -17764,7 +17765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="10">
         <v>93000</v>
       </c>
@@ -17787,7 +17788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="10">
         <v>87000</v>
       </c>
@@ -17810,7 +17811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="10">
         <v>87000</v>
       </c>
@@ -17833,7 +17834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="10">
         <v>86000</v>
       </c>
@@ -17856,7 +17857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="10">
         <v>86000</v>
       </c>
@@ -17879,7 +17880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="10">
         <v>80000</v>
       </c>
@@ -17902,7 +17903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="10">
         <v>67000</v>
       </c>
@@ -17925,7 +17926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="10">
         <v>83000</v>
       </c>
@@ -17948,7 +17949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="10">
         <v>82000</v>
       </c>
@@ -17971,7 +17972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="10">
         <v>81000</v>
       </c>
@@ -17994,7 +17995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="10">
         <v>85000</v>
       </c>
@@ -18017,7 +18018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="764" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="10">
         <v>72000</v>
       </c>
@@ -18040,7 +18041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="765" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="10">
         <v>94000</v>
       </c>
@@ -18063,7 +18064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="10">
         <v>90000</v>
       </c>
@@ -18086,7 +18087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="10">
         <v>112000</v>
       </c>
@@ -18109,7 +18110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="10">
         <v>48000</v>
       </c>
@@ -18132,7 +18133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="10">
         <v>51000</v>
       </c>
@@ -18155,7 +18156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="10">
         <v>73000</v>
       </c>
@@ -18178,7 +18179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="10">
         <v>84000</v>
       </c>
@@ -18201,7 +18202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="10">
         <v>41000</v>
       </c>
@@ -18224,7 +18225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="10">
         <v>88000</v>
       </c>
@@ -18247,7 +18248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="10">
         <v>79000</v>
       </c>
@@ -18270,7 +18271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="10">
         <v>96000</v>
       </c>
@@ -18293,7 +18294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="10">
         <v>65000</v>
       </c>
@@ -18316,7 +18317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="10">
         <v>69000</v>
       </c>
@@ -18339,7 +18340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="10">
         <v>74000</v>
       </c>
@@ -18362,7 +18363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="10">
         <v>61000</v>
       </c>
@@ -18385,7 +18386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="10">
         <v>57000</v>
       </c>
@@ -18408,7 +18409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="10">
         <v>88000</v>
       </c>
@@ -18431,7 +18432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="10">
         <v>82000</v>
       </c>
@@ -18454,7 +18455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="10">
         <v>73000</v>
       </c>
@@ -18477,7 +18478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="10">
         <v>161000</v>
       </c>
@@ -18500,7 +18501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="10">
         <v>157000</v>
       </c>
@@ -18523,7 +18524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="10">
         <v>185000</v>
       </c>
@@ -18546,7 +18547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="10">
         <v>155000</v>
       </c>
@@ -18569,7 +18570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="788" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="10">
         <v>235000</v>
       </c>
@@ -18592,7 +18593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="10">
         <v>106000</v>
       </c>
@@ -18615,7 +18616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="10">
         <v>187000</v>
       </c>
@@ -18638,7 +18639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="10">
         <v>173000</v>
       </c>
@@ -18661,7 +18662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="792" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="10">
         <v>134000</v>
       </c>
@@ -18684,7 +18685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="793" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="10">
         <v>154000</v>
       </c>
@@ -18707,7 +18708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="10">
         <v>173000</v>
       </c>
@@ -18730,7 +18731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="10">
         <v>90000</v>
       </c>
@@ -18753,7 +18754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="10">
         <v>164000</v>
       </c>
@@ -18776,7 +18777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="10">
         <v>180000</v>
       </c>
@@ -18799,7 +18800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="10">
         <v>169000</v>
       </c>
@@ -18822,7 +18823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="10">
         <v>204000</v>
       </c>
@@ -18845,7 +18846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="10">
         <v>153000</v>
       </c>
@@ -18868,7 +18869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="801" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="10">
         <v>151000</v>
       </c>
@@ -18914,7 +18915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="10">
         <v>168000</v>
       </c>
@@ -18937,7 +18938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="10">
         <v>133000</v>
       </c>
@@ -18960,7 +18961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="10">
         <v>175000</v>
       </c>
@@ -18983,7 +18984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="10">
         <v>155000</v>
       </c>
@@ -19006,7 +19007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="807" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="10">
         <v>140000</v>
       </c>
@@ -19029,7 +19030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="808" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="10">
         <v>143000</v>
       </c>
@@ -19052,7 +19053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="10">
         <v>144000</v>
       </c>
@@ -19075,7 +19076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="10">
         <v>140000</v>
       </c>
@@ -19098,7 +19099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="10">
         <v>132000</v>
       </c>
@@ -19121,7 +19122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="10">
         <v>203000</v>
       </c>
@@ -19144,7 +19145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="813" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="10">
         <v>203000</v>
       </c>
@@ -19167,7 +19168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="814" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="10">
         <v>171000</v>
       </c>
@@ -19190,7 +19191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="815" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="10">
         <v>113000</v>
       </c>
@@ -19213,7 +19214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="10">
         <v>86000</v>
       </c>
@@ -19236,7 +19237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="10">
         <v>109000</v>
       </c>
@@ -19259,7 +19260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="10">
         <v>153000</v>
       </c>
@@ -19282,7 +19283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="819" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="10">
         <v>173000</v>
       </c>
@@ -19305,7 +19306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="820" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="10">
         <v>127000</v>
       </c>
@@ -19328,7 +19329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="10">
         <v>96000</v>
       </c>
@@ -19351,7 +19352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="822" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="10">
         <v>168000</v>
       </c>
@@ -19374,7 +19375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="10">
         <v>126000</v>
       </c>
@@ -19443,7 +19444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="826" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="10">
         <v>114000</v>
       </c>
@@ -19512,7 +19513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="10">
         <v>181000</v>
       </c>
@@ -19535,7 +19536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="830" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="10">
         <v>130000</v>
       </c>
@@ -19558,7 +19559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="10">
         <v>108000</v>
       </c>
@@ -19581,7 +19582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="10">
         <v>186000</v>
       </c>
@@ -19604,7 +19605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="10">
         <v>186000</v>
       </c>
@@ -19627,7 +19628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="10">
         <v>118000</v>
       </c>
@@ -19650,7 +19651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="10">
         <v>126000</v>
       </c>
@@ -19673,7 +19674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="10">
         <v>179000</v>
       </c>
@@ -19696,7 +19697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="10">
         <v>174000</v>
       </c>
@@ -19719,7 +19720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="10">
         <v>173000</v>
       </c>
@@ -19742,7 +19743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="839" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="10">
         <v>155000</v>
       </c>
@@ -19765,7 +19766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="10">
         <v>108000</v>
       </c>
@@ -19788,7 +19789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="10">
         <v>204000</v>
       </c>
@@ -19811,7 +19812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="10">
         <v>191000</v>
       </c>
@@ -19834,7 +19835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="10">
         <v>205000</v>
       </c>
@@ -19857,7 +19858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="10">
         <v>181000</v>
       </c>
@@ -19880,7 +19881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="10">
         <v>157000</v>
       </c>
@@ -19903,7 +19904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="10">
         <v>187000</v>
       </c>
@@ -19926,7 +19927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="10">
         <v>193000</v>
       </c>
@@ -19949,7 +19950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="10">
         <v>156000</v>
       </c>
@@ -19972,7 +19973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="10">
         <v>132000</v>
       </c>
@@ -19995,7 +19996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="10">
         <v>123000</v>
       </c>
@@ -20018,7 +20019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="10">
         <v>173000</v>
       </c>
@@ -20041,7 +20042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="852" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="10">
         <v>189000</v>
       </c>
@@ -20064,7 +20065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="853" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="10">
         <v>184000</v>
       </c>
@@ -20087,7 +20088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="854" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="10">
         <v>161000</v>
       </c>
@@ -20110,7 +20111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="10">
         <v>94000</v>
       </c>
@@ -20133,7 +20134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="10">
         <v>187000</v>
       </c>
@@ -20156,7 +20157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="857" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="10">
         <v>174000</v>
       </c>
@@ -20179,7 +20180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="10">
         <v>135000</v>
       </c>
@@ -20202,7 +20203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="10">
         <v>151000</v>
       </c>
@@ -20225,7 +20226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="10">
         <v>154000</v>
       </c>
@@ -20248,7 +20249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="10">
         <v>181000</v>
       </c>
@@ -20271,7 +20272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="862" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="10">
         <v>122000</v>
       </c>
@@ -20294,7 +20295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="10">
         <v>194000</v>
       </c>
@@ -20317,7 +20318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="10">
         <v>173000</v>
       </c>
@@ -20340,7 +20341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="10">
         <v>98000</v>
       </c>
@@ -20363,7 +20364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="866" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="10">
         <v>174000</v>
       </c>
@@ -20386,7 +20387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="10">
         <v>207000</v>
       </c>
@@ -20432,7 +20433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="10">
         <v>193000</v>
       </c>
@@ -20455,7 +20456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="870" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="10">
         <v>204000</v>
       </c>
@@ -20478,7 +20479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="10">
         <v>171000</v>
       </c>
@@ -20524,7 +20525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="10">
         <v>149000</v>
       </c>
@@ -20570,7 +20571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="10">
         <v>179000</v>
       </c>
@@ -20593,7 +20594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="10">
         <v>166000</v>
       </c>
@@ -20616,7 +20617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="10">
         <v>225000</v>
       </c>
@@ -20639,7 +20640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="10">
         <v>180000</v>
       </c>
@@ -20662,7 +20663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="10">
         <v>213000</v>
       </c>
@@ -20685,7 +20686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="10">
         <v>175000</v>
       </c>
@@ -20708,7 +20709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="10">
         <v>62000</v>
       </c>
@@ -20731,7 +20732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="882" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="10">
         <v>95000</v>
       </c>
@@ -20754,7 +20755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="10">
         <v>163000</v>
       </c>
@@ -20800,7 +20801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="885" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="10">
         <v>31000</v>
       </c>
@@ -20823,7 +20824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="10">
         <v>12000</v>
       </c>
@@ -20846,7 +20847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="10">
         <v>22000</v>
       </c>
@@ -20869,7 +20870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="10">
         <v>162000</v>
       </c>
@@ -20892,7 +20893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="10">
         <v>97000</v>
       </c>
@@ -20915,7 +20916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="10">
         <v>164000</v>
       </c>
@@ -20938,7 +20939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="10">
         <v>242000</v>
       </c>
@@ -20984,7 +20985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="10">
         <v>197000</v>
       </c>
@@ -21007,7 +21008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="10">
         <v>188000</v>
       </c>
@@ -21030,7 +21031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="10">
         <v>63000</v>
       </c>
@@ -21053,7 +21054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="10">
         <v>195000</v>
       </c>
@@ -21076,7 +21077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="10">
         <v>181000</v>
       </c>
@@ -21099,7 +21100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="898" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="10">
         <v>45000</v>
       </c>
@@ -21122,7 +21123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="10">
         <v>61000</v>
       </c>
@@ -21145,7 +21146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="900" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="10">
         <v>184000</v>
       </c>
@@ -21168,7 +21169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="10">
         <v>199000</v>
       </c>
@@ -21191,7 +21192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="10">
         <v>120000</v>
       </c>
@@ -21214,7 +21215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="10">
         <v>58000</v>
       </c>
@@ -21237,7 +21238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="10">
         <v>143000</v>
       </c>
@@ -21260,7 +21261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="10">
         <v>107000</v>
       </c>
@@ -21283,7 +21284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="906" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="10">
         <v>159000</v>
       </c>
@@ -21306,7 +21307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="907" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="10">
         <v>133000</v>
       </c>
@@ -21329,7 +21330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="908" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="10">
         <v>129000</v>
       </c>
@@ -21352,7 +21353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="909" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="10">
         <v>39000</v>
       </c>
@@ -21375,7 +21376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="10">
         <v>96000</v>
       </c>
@@ -21398,7 +21399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="10">
         <v>56000</v>
       </c>
@@ -21421,7 +21422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="10">
         <v>96000</v>
       </c>
@@ -21444,7 +21445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="913" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="10">
         <v>157000</v>
       </c>
@@ -21467,7 +21468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="10">
         <v>53000</v>
       </c>
@@ -21490,7 +21491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="10">
         <v>198000</v>
       </c>
@@ -21513,7 +21514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="10">
         <v>103000</v>
       </c>
@@ -21536,7 +21537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="10">
         <v>94000</v>
       </c>
@@ -21559,7 +21560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="10">
         <v>128000</v>
       </c>
@@ -21582,7 +21583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="10">
         <v>76000</v>
       </c>
@@ -21605,7 +21606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="920" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="10">
         <v>184000</v>
       </c>
@@ -21628,7 +21629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="10">
         <v>76000</v>
       </c>
@@ -21651,7 +21652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="10">
         <v>70000</v>
       </c>
@@ -21674,7 +21675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="10">
         <v>98000</v>
       </c>
@@ -21697,7 +21698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="10">
         <v>112000</v>
       </c>
@@ -21720,7 +21721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="10">
         <v>129000</v>
       </c>
@@ -21743,7 +21744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="10">
         <v>194000</v>
       </c>
@@ -21766,7 +21767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="10">
         <v>116000</v>
       </c>
@@ -21789,7 +21790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="10">
         <v>153000</v>
       </c>
@@ -21812,7 +21813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="10">
         <v>95000</v>
       </c>
@@ -21835,7 +21836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="10">
         <v>132000</v>
       </c>
@@ -21858,7 +21859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="931" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="10">
         <v>105000</v>
       </c>
@@ -21881,7 +21882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="932" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="10">
         <v>90000</v>
       </c>
@@ -21904,7 +21905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="933" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="10">
         <v>54000</v>
       </c>
@@ -21927,7 +21928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="934" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="10">
         <v>124000</v>
       </c>
@@ -21950,9 +21951,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="935" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="10">
-        <v>167000</v>
+        <v>67000</v>
       </c>
       <c r="B935" s="3" t="s">
         <v>24</v>
@@ -21973,7 +21974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="936" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="10">
         <v>188000</v>
       </c>
@@ -21996,7 +21997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="937" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="10">
         <v>98000</v>
       </c>
@@ -22019,7 +22020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="938" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="10">
         <v>108000</v>
       </c>
@@ -22042,9 +22043,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="939" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="10">
-        <v>209000</v>
+        <v>59000</v>
       </c>
       <c r="B939" s="3" t="s">
         <v>24</v>
@@ -22065,7 +22066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="940" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="10">
         <v>98000</v>
       </c>
@@ -22088,7 +22089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="941" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="10">
         <v>63000</v>
       </c>
@@ -22111,7 +22112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="942" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="10">
         <v>190000</v>
       </c>
@@ -22134,7 +22135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="943" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="10">
         <v>77000</v>
       </c>
@@ -22157,7 +22158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="944" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="10">
         <v>192000</v>
       </c>
@@ -22180,7 +22181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="945" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="10">
         <v>46000</v>
       </c>
@@ -22203,7 +22204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="946" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="10">
         <v>86000</v>
       </c>
@@ -22226,7 +22227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="947" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="10">
         <v>82000</v>
       </c>
@@ -22249,7 +22250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="948" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="10">
         <v>78000</v>
       </c>
@@ -22272,7 +22273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="949" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="10">
         <v>82000</v>
       </c>
@@ -22318,7 +22319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="10">
         <v>127000</v>
       </c>
@@ -22341,7 +22342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="952" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="10">
         <v>54000</v>
       </c>
@@ -22364,7 +22365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="10">
         <v>106000</v>
       </c>
@@ -22387,7 +22388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="954" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="10">
         <v>101000</v>
       </c>
@@ -22410,7 +22411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="955" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="10">
         <v>89000</v>
       </c>
@@ -22433,7 +22434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="10">
         <v>65000</v>
       </c>
@@ -22456,7 +22457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="957" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="10">
         <v>91000</v>
       </c>
@@ -22479,7 +22480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="10">
         <v>75000</v>
       </c>
@@ -22525,7 +22526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="960" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="10">
         <v>110000</v>
       </c>
@@ -22548,7 +22549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="10">
         <v>110000</v>
       </c>
@@ -22571,7 +22572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="10">
         <v>71000</v>
       </c>
@@ -22594,7 +22595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="10">
         <v>98000</v>
       </c>
@@ -22617,7 +22618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="964" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="10">
         <v>108000</v>
       </c>
@@ -22640,7 +22641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="965" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="10">
         <v>42000</v>
       </c>
@@ -22686,7 +22687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="967" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="10">
         <v>104000</v>
       </c>
@@ -22709,7 +22710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="968" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="10">
         <v>57000</v>
       </c>
@@ -22755,7 +22756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="970" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="10">
         <v>163000</v>
       </c>
@@ -22778,7 +22779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="971" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="10">
         <v>110000</v>
       </c>
@@ -22801,7 +22802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="972" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="10">
         <v>150000</v>
       </c>
@@ -22824,7 +22825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="973" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="10">
         <v>149000</v>
       </c>
@@ -22847,7 +22848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="974" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="10">
         <v>207000</v>
       </c>
@@ -22870,7 +22871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="10">
         <v>169000</v>
       </c>
@@ -22893,7 +22894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="976" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="10">
         <v>147000</v>
       </c>
@@ -22916,7 +22917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="10">
         <v>164000</v>
       </c>
@@ -22939,7 +22940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="978" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="10">
         <v>160000</v>
       </c>
@@ -22962,7 +22963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="10">
         <v>166000</v>
       </c>
@@ -22985,7 +22986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="10">
         <v>157000</v>
       </c>
@@ -23008,7 +23009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="10">
         <v>156000</v>
       </c>
@@ -23031,7 +23032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="982" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="10">
         <v>149000</v>
       </c>
@@ -23054,7 +23055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="983" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="10">
         <v>66000</v>
       </c>
@@ -23077,7 +23078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="10">
         <v>108000</v>
       </c>
@@ -23100,7 +23101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="10">
         <v>60000</v>
       </c>
@@ -23123,7 +23124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="10">
         <v>201000</v>
       </c>
@@ -23148,7 +23149,7 @@
     </row>
     <row r="987" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="10">
-        <v>137000</v>
+        <v>80000</v>
       </c>
       <c r="B987" s="3" t="s">
         <v>24</v>
@@ -23169,7 +23170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="10">
         <v>172000</v>
       </c>
@@ -23192,7 +23193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="10">
         <v>174000</v>
       </c>
@@ -23215,7 +23216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="990" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="10">
         <v>159000</v>
       </c>
@@ -23261,7 +23262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="10">
         <v>144000</v>
       </c>
@@ -23284,7 +23285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="993" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="10">
         <v>159000</v>
       </c>
@@ -23307,7 +23308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="994" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="10">
         <v>121000</v>
       </c>
@@ -23330,7 +23331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="995" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="10">
         <v>67000</v>
       </c>
@@ -23353,7 +23354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="10">
         <v>151000</v>
       </c>
@@ -23376,7 +23377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="997" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="10">
         <v>158000</v>
       </c>
@@ -23399,7 +23400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="998" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="10">
         <v>45000</v>
       </c>
@@ -23422,7 +23423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="999" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="10">
         <v>108000</v>
       </c>
@@ -23445,7 +23446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="10">
         <v>32000</v>
       </c>
@@ -23468,7 +23469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="10">
         <v>130000</v>
       </c>
@@ -23493,6 +23494,20 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1001">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="70"/>
+        <filter val="71"/>
+        <filter val="72"/>
+        <filter val="73"/>
+        <filter val="74"/>
+        <filter val="75"/>
+        <filter val="76"/>
+        <filter val="77"/>
+        <filter val="78"/>
+        <filter val="79"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:G1001">
       <sortCondition ref="B371"/>
     </sortState>

--- a/travelBD.xlsx
+++ b/travelBD.xlsx
@@ -450,11 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="A708" sqref="A708"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -492,7 +491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>191000</v>
       </c>
@@ -515,7 +514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>130000</v>
       </c>
@@ -538,7 +537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>158000</v>
       </c>
@@ -561,7 +560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>236000</v>
       </c>
@@ -584,7 +583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>196000</v>
       </c>
@@ -607,7 +606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>179000</v>
       </c>
@@ -630,7 +629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>151000</v>
       </c>
@@ -653,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>187000</v>
       </c>
@@ -699,7 +698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>141000</v>
       </c>
@@ -722,7 +721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>208000</v>
       </c>
@@ -745,7 +744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>203000</v>
       </c>
@@ -768,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>139000</v>
       </c>
@@ -814,7 +813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>122000</v>
       </c>
@@ -837,7 +836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>140000</v>
       </c>
@@ -860,7 +859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>199000</v>
       </c>
@@ -883,7 +882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>60000</v>
       </c>
@@ -906,7 +905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>212000</v>
       </c>
@@ -929,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>154000</v>
       </c>
@@ -952,7 +951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>149000</v>
       </c>
@@ -975,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>185000</v>
       </c>
@@ -998,7 +997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>196000</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>186000</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>189000</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>164000</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>182000</v>
       </c>
@@ -1113,7 +1112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>183000</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>155000</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>161000</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>195000</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>211000</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>139000</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>155000</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>100000</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>202000</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>190000</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>132000</v>
       </c>
@@ -1412,7 +1411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>177000</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>152000</v>
       </c>
@@ -1458,7 +1457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>172000</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>183000</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>61000</v>
       </c>
@@ -1527,7 +1526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>189000</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>183000</v>
       </c>
@@ -1573,7 +1572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>163000</v>
       </c>
@@ -1596,7 +1595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>166000</v>
       </c>
@@ -1619,7 +1618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>167000</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>177000</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>185000</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>212000</v>
       </c>
@@ -1711,7 +1710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>132000</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>155000</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>128000</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>110000</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>138000</v>
       </c>
@@ -1826,7 +1825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>189000</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>172000</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>164000</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>182000</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>86000</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>183000</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>179000</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>112000</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>176000</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>170000</v>
       </c>
@@ -2056,7 +2055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>173000</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>160000</v>
       </c>
@@ -2102,7 +2101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>163000</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>183000</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>170000</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>228000</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>168000</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>165000</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>154000</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>190000</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>187000</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>185000</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>170000</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>198000</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>209000</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>210000</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>111000</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>169000</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>202000</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>175000</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>191000</v>
       </c>
@@ -2562,7 +2561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>227000</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>160000</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>164000</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>182000</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>212000</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>160000</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>167000</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>121000</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>198000</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>231000</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>221000</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>35000</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>77000</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>128000</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <v>62000</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>106000</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>73000</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>168000</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <v>86000</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>178000</v>
       </c>
@@ -3022,7 +3021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>104000</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>122000</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>69000</v>
       </c>
@@ -3091,7 +3090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>83000</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>37000</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>97000</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>94000</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
         <v>38000</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>45000</v>
       </c>
@@ -3252,7 +3251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10">
         <v>70000</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>41000</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
         <v>83000</v>
       </c>
@@ -3321,7 +3320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>52000</v>
       </c>
@@ -3344,7 +3343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
         <v>99000</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
         <v>113000</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10">
         <v>113000</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
         <v>5000</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10">
         <v>64000</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10">
         <v>82000</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10">
         <v>53000</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10">
         <v>64000</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10">
         <v>92000</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10">
         <v>83000</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10">
         <v>80000</v>
       </c>
@@ -3597,7 +3596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10">
         <v>137000</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10">
         <v>82000</v>
       </c>
@@ -3643,7 +3642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10">
         <v>73000</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10">
         <v>65000</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10">
         <v>143000</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10">
         <v>169000</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10">
         <v>187000</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10">
         <v>159000</v>
       </c>
@@ -3781,7 +3780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10">
         <v>67000</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10">
         <v>68000</v>
       </c>
@@ -3827,7 +3826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10">
         <v>84000</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10">
         <v>155000</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10">
         <v>86000</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10">
         <v>15000</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
         <v>61000</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10">
         <v>101000</v>
       </c>
@@ -3965,7 +3964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10">
         <v>150000</v>
       </c>
@@ -3988,7 +3987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10">
         <v>75000</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10">
         <v>82000</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10">
         <v>84000</v>
       </c>
@@ -4057,7 +4056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10">
         <v>145000</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10">
         <v>70000</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10">
         <v>22100</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10">
         <v>25300</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10">
         <v>166000</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10">
         <v>30000</v>
       </c>
@@ -4195,7 +4194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10">
         <v>97000</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10">
         <v>56000</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10">
         <v>88000</v>
       </c>
@@ -4264,7 +4263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10">
         <v>142000</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10">
         <v>77000</v>
       </c>
@@ -4310,7 +4309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10">
         <v>102000</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10">
         <v>148000</v>
       </c>
@@ -4356,7 +4355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10">
         <v>55000</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10">
         <v>83000</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10">
         <v>67000</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10">
         <v>105000</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10">
         <v>55000</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10">
         <v>171000</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10">
         <v>8000</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10">
         <v>161000</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="10">
         <v>106000</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
         <v>153000</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
         <v>65000</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="10">
         <v>172000</v>
       </c>
@@ -4632,7 +4631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10">
         <v>68000</v>
       </c>
@@ -4655,7 +4654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10">
         <v>106000</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10">
         <v>81000</v>
       </c>
@@ -4701,7 +4700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="10">
         <v>170000</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
         <v>65000</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
         <v>161000</v>
       </c>
@@ -4770,7 +4769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10">
         <v>58000</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10">
         <v>74000</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10">
         <v>115000</v>
       </c>
@@ -4839,7 +4838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10">
         <v>105000</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="10">
         <v>31000</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10">
         <v>72000</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10">
         <v>44000</v>
       </c>
@@ -4931,7 +4930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10">
         <v>144000</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10">
         <v>126000</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10">
         <v>85000</v>
       </c>
@@ -5000,7 +4999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10">
         <v>90000</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10">
         <v>108000</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="10">
         <v>93000</v>
       </c>
@@ -5069,7 +5068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="10">
         <v>80000</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="10">
         <v>88000</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="10">
         <v>49000</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="10">
         <v>107000</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10">
         <v>56000</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="10">
         <v>89000</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="10">
         <v>67000</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="10">
         <v>95000</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="10">
         <v>71000</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="10">
         <v>42000</v>
       </c>
@@ -5322,7 +5321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="10">
         <v>102000</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10">
         <v>103000</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="10">
         <v>56000</v>
       </c>
@@ -5391,7 +5390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="10">
         <v>91000</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="10">
         <v>55000</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="10">
         <v>60000</v>
       </c>
@@ -5460,7 +5459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="10">
         <v>69000</v>
       </c>
@@ -5483,7 +5482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="10">
         <v>108000</v>
       </c>
@@ -5506,7 +5505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="10">
         <v>98000</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="10">
         <v>57000</v>
       </c>
@@ -5552,7 +5551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="10">
         <v>92000</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="10">
         <v>96000</v>
       </c>
@@ -5598,7 +5597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="10">
         <v>70000</v>
       </c>
@@ -5621,7 +5620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="10">
         <v>78000</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="10">
         <v>50000</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="10">
         <v>99000</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="10">
         <v>103000</v>
       </c>
@@ -5713,7 +5712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="10">
         <v>90000</v>
       </c>
@@ -5736,7 +5735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="10">
         <v>71000</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="10">
         <v>57000</v>
       </c>
@@ -5782,7 +5781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="10">
         <v>93000</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="10">
         <v>121000</v>
       </c>
@@ -5828,7 +5827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="10">
         <v>107000</v>
       </c>
@@ -5851,7 +5850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="10">
         <v>90000</v>
       </c>
@@ -5874,7 +5873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="10">
         <v>74000</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="10">
         <v>17000</v>
       </c>
@@ -5920,7 +5919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="10">
         <v>96000</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="10">
         <v>81000</v>
       </c>
@@ -5966,7 +5965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="10">
         <v>118000</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="10">
         <v>111000</v>
       </c>
@@ -6012,7 +6011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="10">
         <v>72000</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="10">
         <v>106000</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="10">
         <v>98000</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10">
         <v>93000</v>
       </c>
@@ -6104,7 +6103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="10">
         <v>78000</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="10">
         <v>65000</v>
       </c>
@@ -6150,7 +6149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="10">
         <v>174000</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="10">
         <v>71000</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="10">
         <v>132000</v>
       </c>
@@ -6219,7 +6218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="10">
         <v>104000</v>
       </c>
@@ -6242,7 +6241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="10">
         <v>82000</v>
       </c>
@@ -6265,7 +6264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10">
         <v>50000</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="10">
         <v>104000</v>
       </c>
@@ -6311,7 +6310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="10">
         <v>85000</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="10">
         <v>109000</v>
       </c>
@@ -6357,7 +6356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="10">
         <v>122000</v>
       </c>
@@ -6380,7 +6379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10">
         <v>81000</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="10">
         <v>88000</v>
       </c>
@@ -6426,7 +6425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="10">
         <v>52000</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="10">
         <v>68000</v>
       </c>
@@ -6472,7 +6471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="10">
         <v>86000</v>
       </c>
@@ -6518,7 +6517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="10">
         <v>178000</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="10">
         <v>63000</v>
       </c>
@@ -6564,7 +6563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="10">
         <v>170000</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="10">
         <v>66000</v>
       </c>
@@ -6610,7 +6609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="10">
         <v>60000</v>
       </c>
@@ -6633,7 +6632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="10">
         <v>172000</v>
       </c>
@@ -6656,7 +6655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="10">
         <v>175000</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="10">
         <v>76000</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="10">
         <v>121000</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="10">
         <v>170000</v>
       </c>
@@ -6748,7 +6747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="10">
         <v>78000</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="10">
         <v>66000</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="10">
         <v>90000</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="10">
         <v>116000</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="10">
         <v>156000</v>
       </c>
@@ -6863,7 +6862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="10">
         <v>193000</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="10">
         <v>26000</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="10">
         <v>84000</v>
       </c>
@@ -6932,7 +6931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="10">
         <v>189000</v>
       </c>
@@ -6955,7 +6954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="10">
         <v>47000</v>
       </c>
@@ -6978,7 +6977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="10">
         <v>160000</v>
       </c>
@@ -7001,7 +7000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="10">
         <v>89000</v>
       </c>
@@ -7024,7 +7023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="10">
         <v>130000</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="10">
         <v>223000</v>
       </c>
@@ -7070,7 +7069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="10">
         <v>14000</v>
       </c>
@@ -7093,7 +7092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="10">
         <v>155000</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="10">
         <v>90000</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="10">
         <v>181000</v>
       </c>
@@ -7162,7 +7161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="10">
         <v>72000</v>
       </c>
@@ -7185,7 +7184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="10">
         <v>126000</v>
       </c>
@@ -7208,7 +7207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="10">
         <v>54000</v>
       </c>
@@ -7231,7 +7230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="10">
         <v>240000</v>
       </c>
@@ -7254,7 +7253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="10">
         <v>81000</v>
       </c>
@@ -7277,7 +7276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="10">
         <v>68000</v>
       </c>
@@ -7300,7 +7299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="10">
         <v>88000</v>
       </c>
@@ -7323,7 +7322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="10">
         <v>68000</v>
       </c>
@@ -7346,7 +7345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="10">
         <v>130000</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="10">
         <v>92000</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="10">
         <v>9000</v>
       </c>
@@ -7415,7 +7414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="10">
         <v>108000</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="10">
         <v>187000</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="10">
         <v>90000</v>
       </c>
@@ -7484,7 +7483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="10">
         <v>142000</v>
       </c>
@@ -7507,7 +7506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="10">
         <v>95000</v>
       </c>
@@ -7530,7 +7529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="10">
         <v>110000</v>
       </c>
@@ -7553,7 +7552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="10">
         <v>179000</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="10">
         <v>82000</v>
       </c>
@@ -7599,7 +7598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="10">
         <v>41000</v>
       </c>
@@ -7622,7 +7621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="10">
         <v>171000</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="10">
         <v>107000</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="10">
         <v>89000</v>
       </c>
@@ -7737,7 +7736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="10">
         <v>152000</v>
       </c>
@@ -7760,7 +7759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="10">
         <v>185000</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="10">
         <v>93000</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="10">
         <v>68000</v>
       </c>
@@ -7852,7 +7851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="10">
         <v>148000</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="10">
         <v>170000</v>
       </c>
@@ -7898,7 +7897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="10">
         <v>101000</v>
       </c>
@@ -7921,7 +7920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="10">
         <v>24000</v>
       </c>
@@ -7944,7 +7943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="10">
         <v>105000</v>
       </c>
@@ -7967,7 +7966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="10">
         <v>87000</v>
       </c>
@@ -7990,7 +7989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="10">
         <v>153000</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="10">
         <v>12000</v>
       </c>
@@ -8036,7 +8035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="10">
         <v>69000</v>
       </c>
@@ -8059,7 +8058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="10">
         <v>79000</v>
       </c>
@@ -8082,7 +8081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="10">
         <v>89000</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="10">
         <v>219000</v>
       </c>
@@ -8151,7 +8150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="10">
         <v>73000</v>
       </c>
@@ -8174,7 +8173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="10">
         <v>89000</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="10">
         <v>178000</v>
       </c>
@@ -8220,7 +8219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="10">
         <v>50000</v>
       </c>
@@ -8243,7 +8242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="10">
         <v>82000</v>
       </c>
@@ -8266,7 +8265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="10">
         <v>63000</v>
       </c>
@@ -8289,7 +8288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="10">
         <v>78000</v>
       </c>
@@ -8312,7 +8311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="10">
         <v>73000</v>
       </c>
@@ -8335,7 +8334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="10">
         <v>73000</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="10">
         <v>53000</v>
       </c>
@@ -8404,7 +8403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="10">
         <v>72000</v>
       </c>
@@ -8427,7 +8426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="10">
         <v>60000</v>
       </c>
@@ -8450,7 +8449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="10">
         <v>63000</v>
       </c>
@@ -8473,7 +8472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="10">
         <v>62000</v>
       </c>
@@ -8496,7 +8495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="10">
         <v>79000</v>
       </c>
@@ -8519,7 +8518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="10">
         <v>55000</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="10">
         <v>62000</v>
       </c>
@@ -8565,7 +8564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="10">
         <v>44000</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="10">
         <v>30000</v>
       </c>
@@ -8657,7 +8656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="10">
         <v>66000</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="10">
         <v>84000</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="10">
         <v>66000</v>
       </c>
@@ -8772,7 +8771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="10">
         <v>87000</v>
       </c>
@@ -8795,7 +8794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="10">
         <v>61000</v>
       </c>
@@ -8818,7 +8817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="10">
         <v>40000</v>
       </c>
@@ -8841,7 +8840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="10">
         <v>43000</v>
       </c>
@@ -8864,7 +8863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="10">
         <v>68000</v>
       </c>
@@ -8887,7 +8886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="10">
         <v>86000</v>
       </c>
@@ -8910,7 +8909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="10">
         <v>88000</v>
       </c>
@@ -8933,7 +8932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="10">
         <v>56000</v>
       </c>
@@ -8956,7 +8955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="10">
         <v>83000</v>
       </c>
@@ -8979,7 +8978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="10">
         <v>94000</v>
       </c>
@@ -9002,7 +9001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="10">
         <v>38000</v>
       </c>
@@ -9025,7 +9024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="10">
         <v>72000</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="10">
         <v>78000</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="10">
         <v>131000</v>
       </c>
@@ -9094,7 +9093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="10">
         <v>88000</v>
       </c>
@@ -9117,7 +9116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="10">
         <v>103000</v>
       </c>
@@ -9140,7 +9139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="10">
         <v>50000</v>
       </c>
@@ -9163,7 +9162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="10">
         <v>79000</v>
       </c>
@@ -9186,7 +9185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="10">
         <v>113000</v>
       </c>
@@ -9209,7 +9208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="10">
         <v>79000</v>
       </c>
@@ -9232,7 +9231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="10">
         <v>36000</v>
       </c>
@@ -9255,7 +9254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="10">
         <v>59000</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="10">
         <v>59000</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="10">
         <v>15000</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="10">
         <v>70000</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="10">
         <v>173000</v>
       </c>
@@ -9370,7 +9369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="10">
         <v>97000</v>
       </c>
@@ -9393,7 +9392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="10">
         <v>163000</v>
       </c>
@@ -9416,7 +9415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="10">
         <v>161000</v>
       </c>
@@ -9439,7 +9438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="10">
         <v>49000</v>
       </c>
@@ -9462,7 +9461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="10">
         <v>32000</v>
       </c>
@@ -9485,7 +9484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="10">
         <v>207000</v>
       </c>
@@ -9508,7 +9507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="10">
         <v>148000</v>
       </c>
@@ -9531,7 +9530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="10">
         <v>170000</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="10">
         <v>96000</v>
       </c>
@@ -9577,7 +9576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="10">
         <v>173000</v>
       </c>
@@ -9623,7 +9622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="10">
         <v>173000</v>
       </c>
@@ -9646,7 +9645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="10">
         <v>77000</v>
       </c>
@@ -9669,7 +9668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="10">
         <v>182000</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="10">
         <v>74000</v>
       </c>
@@ -9715,7 +9714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="10">
         <v>19000</v>
       </c>
@@ -9738,7 +9737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="10">
         <v>96000</v>
       </c>
@@ -9761,7 +9760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="10">
         <v>136000</v>
       </c>
@@ -9784,7 +9783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="10">
         <v>154000</v>
       </c>
@@ -9807,7 +9806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="10">
         <v>78000</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="10">
         <v>206000</v>
       </c>
@@ -9853,7 +9852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="10">
         <v>142000</v>
       </c>
@@ -9876,7 +9875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="10">
         <v>45000</v>
       </c>
@@ -9899,7 +9898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="10">
         <v>85000</v>
       </c>
@@ -9922,7 +9921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="10">
         <v>58000</v>
       </c>
@@ -9945,7 +9944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="10">
         <v>42000</v>
       </c>
@@ -9968,7 +9967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="10">
         <v>52000</v>
       </c>
@@ -9991,7 +9990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="10">
         <v>187000</v>
       </c>
@@ -10014,7 +10013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="10">
         <v>65000</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="10">
         <v>49000</v>
       </c>
@@ -10060,7 +10059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="10">
         <v>56000</v>
       </c>
@@ -10083,7 +10082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="10">
         <v>122000</v>
       </c>
@@ -10106,7 +10105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="10">
         <v>68000</v>
       </c>
@@ -10129,7 +10128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="10">
         <v>78000</v>
       </c>
@@ -10152,7 +10151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="10">
         <v>69000</v>
       </c>
@@ -10175,7 +10174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="10">
         <v>80000</v>
       </c>
@@ -10198,7 +10197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="10">
         <v>30000</v>
       </c>
@@ -10221,7 +10220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="10">
         <v>45000</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="10">
         <v>46000</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="10">
         <v>101000</v>
       </c>
@@ -10290,7 +10289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="10">
         <v>44000</v>
       </c>
@@ -10313,7 +10312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="10">
         <v>76000</v>
       </c>
@@ -10336,7 +10335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="10">
         <v>68000</v>
       </c>
@@ -10359,7 +10358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="10">
         <v>45000</v>
       </c>
@@ -10382,7 +10381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="10">
         <v>74000</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="10">
         <v>39000</v>
       </c>
@@ -10428,7 +10427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="10">
         <v>57000</v>
       </c>
@@ -10451,7 +10450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="10">
         <v>55000</v>
       </c>
@@ -10474,7 +10473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="10">
         <v>57000</v>
       </c>
@@ -10497,7 +10496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="10">
         <v>130000</v>
       </c>
@@ -10520,7 +10519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="10">
         <v>49000</v>
       </c>
@@ -10543,7 +10542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="10">
         <v>66000</v>
       </c>
@@ -10566,7 +10565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="10">
         <v>63000</v>
       </c>
@@ -10589,7 +10588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="10">
         <v>131000</v>
       </c>
@@ -10635,7 +10634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="10">
         <v>39000</v>
       </c>
@@ -10658,7 +10657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="10">
         <v>120000</v>
       </c>
@@ -10681,7 +10680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="10">
         <v>195000</v>
       </c>
@@ -10727,7 +10726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="10">
         <v>23000</v>
       </c>
@@ -10773,7 +10772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="10">
         <v>182000</v>
       </c>
@@ -10796,7 +10795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="10">
         <v>175000</v>
       </c>
@@ -10819,7 +10818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="10">
         <v>150000</v>
       </c>
@@ -10842,7 +10841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="10">
         <v>233000</v>
       </c>
@@ -10865,7 +10864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="10">
         <v>161000</v>
       </c>
@@ -10888,7 +10887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="10">
         <v>207000</v>
       </c>
@@ -10911,7 +10910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="10">
         <v>56000</v>
       </c>
@@ -10934,7 +10933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="10">
         <v>205000</v>
       </c>
@@ -10957,7 +10956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="10">
         <v>168000</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="10">
         <v>56000</v>
       </c>
@@ -11049,7 +11048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="10">
         <v>182000</v>
       </c>
@@ -11072,7 +11071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="10">
         <v>94000</v>
       </c>
@@ -11118,7 +11117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="10">
         <v>103000</v>
       </c>
@@ -11141,7 +11140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="10">
         <v>86000</v>
       </c>
@@ -11164,7 +11163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="10">
         <v>129000</v>
       </c>
@@ -11187,7 +11186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="10">
         <v>116000</v>
       </c>
@@ -11210,7 +11209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="10">
         <v>107000</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="10">
         <v>72000</v>
       </c>
@@ -11256,7 +11255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="10">
         <v>94000</v>
       </c>
@@ -11279,7 +11278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="10">
         <v>85000</v>
       </c>
@@ -11302,7 +11301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="10">
         <v>103000</v>
       </c>
@@ -11325,7 +11324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="10">
         <v>77000</v>
       </c>
@@ -11348,7 +11347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="10">
         <v>138000</v>
       </c>
@@ -11371,7 +11370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="10">
         <v>133000</v>
       </c>
@@ -11394,7 +11393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="10">
         <v>113000</v>
       </c>
@@ -11417,7 +11416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="10">
         <v>85000</v>
       </c>
@@ -11440,7 +11439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="10">
         <v>64000</v>
       </c>
@@ -11463,7 +11462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="10">
         <v>43000</v>
       </c>
@@ -11486,7 +11485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="10">
         <v>67000</v>
       </c>
@@ -11509,7 +11508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="10">
         <v>88000</v>
       </c>
@@ -11532,7 +11531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="10">
         <v>80000</v>
       </c>
@@ -11555,7 +11554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="10">
         <v>85000</v>
       </c>
@@ -11578,7 +11577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="10">
         <v>138000</v>
       </c>
@@ -11601,7 +11600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="10">
         <v>75000</v>
       </c>
@@ -11647,7 +11646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="10">
         <v>58000</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="10">
         <v>90000</v>
       </c>
@@ -11693,7 +11692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="10">
         <v>114000</v>
       </c>
@@ -11716,7 +11715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="10">
         <v>81000</v>
       </c>
@@ -11739,7 +11738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="10">
         <v>74000</v>
       </c>
@@ -11762,7 +11761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="10">
         <v>60000</v>
       </c>
@@ -11785,7 +11784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="10">
         <v>86000</v>
       </c>
@@ -11808,7 +11807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="10">
         <v>79000</v>
       </c>
@@ -11831,7 +11830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="10">
         <v>75000</v>
       </c>
@@ -11854,7 +11853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="10">
         <v>83000</v>
       </c>
@@ -11877,7 +11876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="10">
         <v>79000</v>
       </c>
@@ -11900,7 +11899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="10">
         <v>46000</v>
       </c>
@@ -11923,7 +11922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="10">
         <v>36000</v>
       </c>
@@ -11946,7 +11945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="10">
         <v>71000</v>
       </c>
@@ -11969,7 +11968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="10">
         <v>83000</v>
       </c>
@@ -11992,7 +11991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="10">
         <v>98000</v>
       </c>
@@ -12015,7 +12014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="10">
         <v>30000</v>
       </c>
@@ -12038,7 +12037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="10">
         <v>66000</v>
       </c>
@@ -12061,7 +12060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="10">
         <v>96000</v>
       </c>
@@ -12084,7 +12083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="10">
         <v>21000</v>
       </c>
@@ -12107,7 +12106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="10">
         <v>64000</v>
       </c>
@@ -12130,7 +12129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="10">
         <v>113000</v>
       </c>
@@ -12153,7 +12152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="10">
         <v>72000</v>
       </c>
@@ -12176,7 +12175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="10">
         <v>51000</v>
       </c>
@@ -12199,7 +12198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="10">
         <v>47000</v>
       </c>
@@ -12222,7 +12221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="10">
         <v>106000</v>
       </c>
@@ -12245,7 +12244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="10">
         <v>54000</v>
       </c>
@@ -12268,7 +12267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="10">
         <v>73000</v>
       </c>
@@ -12291,7 +12290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="10">
         <v>130000</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="10">
         <v>65000</v>
       </c>
@@ -12337,7 +12336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="10">
         <v>88000</v>
       </c>
@@ -12360,7 +12359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="10">
         <v>133000</v>
       </c>
@@ -12383,7 +12382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="10">
         <v>121000</v>
       </c>
@@ -12406,7 +12405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="10">
         <v>99000</v>
       </c>
@@ -12429,7 +12428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="10">
         <v>164000</v>
       </c>
@@ -12452,7 +12451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="10">
         <v>138000</v>
       </c>
@@ -12475,7 +12474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="10">
         <v>155000</v>
       </c>
@@ -12498,7 +12497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="10">
         <v>164000</v>
       </c>
@@ -12521,7 +12520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="10">
         <v>69000</v>
       </c>
@@ -12544,7 +12543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="10">
         <v>25000</v>
       </c>
@@ -12567,7 +12566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="10">
         <v>47000</v>
       </c>
@@ -12590,7 +12589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="10">
         <v>188000</v>
       </c>
@@ -12613,7 +12612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="10">
         <v>63000</v>
       </c>
@@ -12636,7 +12635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="10">
         <v>88000</v>
       </c>
@@ -12659,7 +12658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="10">
         <v>57000</v>
       </c>
@@ -12682,7 +12681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="10">
         <v>115000</v>
       </c>
@@ -12705,7 +12704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="10">
         <v>94000</v>
       </c>
@@ -12728,7 +12727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="10">
         <v>148000</v>
       </c>
@@ -12751,7 +12750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="10">
         <v>99000</v>
       </c>
@@ -12774,7 +12773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="10">
         <v>197000</v>
       </c>
@@ -12797,7 +12796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="10">
         <v>119000</v>
       </c>
@@ -12820,7 +12819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="10">
         <v>151000</v>
       </c>
@@ -12843,7 +12842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="10">
         <v>85000</v>
       </c>
@@ -12866,7 +12865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="10">
         <v>152000</v>
       </c>
@@ -12889,7 +12888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="10">
         <v>96000</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="10">
         <v>57000</v>
       </c>
@@ -12935,7 +12934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="10">
         <v>87000</v>
       </c>
@@ -12958,7 +12957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="10">
         <v>43000</v>
       </c>
@@ -12981,7 +12980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="10">
         <v>129000</v>
       </c>
@@ -13004,7 +13003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="10">
         <v>24000</v>
       </c>
@@ -13027,7 +13026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="10">
         <v>38000</v>
       </c>
@@ -13050,7 +13049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="10">
         <v>53000</v>
       </c>
@@ -13073,7 +13072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="10">
         <v>110000</v>
       </c>
@@ -13096,7 +13095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="10">
         <v>77000</v>
       </c>
@@ -13119,7 +13118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="10">
         <v>175000</v>
       </c>
@@ -13142,7 +13141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="10">
         <v>84000</v>
       </c>
@@ -13165,7 +13164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="10">
         <v>79000</v>
       </c>
@@ -13188,7 +13187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="10">
         <v>196000</v>
       </c>
@@ -13211,7 +13210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="10">
         <v>54000</v>
       </c>
@@ -13234,7 +13233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="10">
         <v>87000</v>
       </c>
@@ -13257,7 +13256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="10">
         <v>75000</v>
       </c>
@@ -13280,7 +13279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="10">
         <v>101000</v>
       </c>
@@ -13303,7 +13302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="10">
         <v>102000</v>
       </c>
@@ -13326,7 +13325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="10">
         <v>97000</v>
       </c>
@@ -13349,7 +13348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="10">
         <v>116000</v>
       </c>
@@ -13372,7 +13371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="10">
         <v>70000</v>
       </c>
@@ -13395,7 +13394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="10">
         <v>76000</v>
       </c>
@@ -13418,7 +13417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="10">
         <v>54000</v>
       </c>
@@ -13441,7 +13440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="10">
         <v>65000</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="10">
         <v>43000</v>
       </c>
@@ -13487,7 +13486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="10">
         <v>183000</v>
       </c>
@@ -13510,7 +13509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="10">
         <v>161000</v>
       </c>
@@ -13533,7 +13532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="10">
         <v>142000</v>
       </c>
@@ -13556,7 +13555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="10">
         <v>69000</v>
       </c>
@@ -13579,7 +13578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="10">
         <v>91000</v>
       </c>
@@ -13602,7 +13601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="572" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="10">
         <v>42000</v>
       </c>
@@ -13625,7 +13624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="573" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="10">
         <v>117000</v>
       </c>
@@ -13648,7 +13647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="10">
         <v>174000</v>
       </c>
@@ -13671,7 +13670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="10">
         <v>78000</v>
       </c>
@@ -13694,7 +13693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="10">
         <v>73000</v>
       </c>
@@ -13717,7 +13716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="10">
         <v>181000</v>
       </c>
@@ -13740,7 +13739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="10">
         <v>175000</v>
       </c>
@@ -13763,7 +13762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="10">
         <v>129000</v>
       </c>
@@ -13786,7 +13785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="10">
         <v>67000</v>
       </c>
@@ -13809,7 +13808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="581" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="10">
         <v>174000</v>
       </c>
@@ -13832,7 +13831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="10">
         <v>46000</v>
       </c>
@@ -13855,7 +13854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="10">
         <v>91000</v>
       </c>
@@ -13878,7 +13877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="584" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="10">
         <v>100000</v>
       </c>
@@ -13901,7 +13900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="585" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="10">
         <v>73000</v>
       </c>
@@ -13924,7 +13923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="586" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="10">
         <v>91000</v>
       </c>
@@ -13947,7 +13946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="10">
         <v>124000</v>
       </c>
@@ -13970,7 +13969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="10">
         <v>90000</v>
       </c>
@@ -13993,7 +13992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="10">
         <v>75000</v>
       </c>
@@ -14016,7 +14015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="590" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="10">
         <v>66000</v>
       </c>
@@ -14039,7 +14038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="10">
         <v>61000</v>
       </c>
@@ -14062,7 +14061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="10">
         <v>58000</v>
       </c>
@@ -14085,7 +14084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="593" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="10">
         <v>123000</v>
       </c>
@@ -14108,7 +14107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="10">
         <v>95000</v>
       </c>
@@ -14131,7 +14130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="10">
         <v>150000</v>
       </c>
@@ -14154,7 +14153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="596" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="10">
         <v>81000</v>
       </c>
@@ -14177,7 +14176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="10">
         <v>105000</v>
       </c>
@@ -14200,7 +14199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="10">
         <v>90000</v>
       </c>
@@ -14223,7 +14222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="10">
         <v>92000</v>
       </c>
@@ -14246,7 +14245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="10">
         <v>62000</v>
       </c>
@@ -14269,7 +14268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="10">
         <v>53000</v>
       </c>
@@ -14292,7 +14291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="10">
         <v>18000</v>
       </c>
@@ -14315,7 +14314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="10">
         <v>73000</v>
       </c>
@@ -14338,7 +14337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="10">
         <v>61000</v>
       </c>
@@ -14361,7 +14360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="10">
         <v>29000</v>
       </c>
@@ -14384,7 +14383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="606" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="10">
         <v>24000</v>
       </c>
@@ -14407,7 +14406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="10">
         <v>37000</v>
       </c>
@@ -14430,7 +14429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="10">
         <v>58000</v>
       </c>
@@ -14453,7 +14452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="10">
         <v>43000</v>
       </c>
@@ -14476,7 +14475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="10">
         <v>90000</v>
       </c>
@@ -14499,7 +14498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="10">
         <v>57000</v>
       </c>
@@ -14522,7 +14521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="10">
         <v>92000</v>
       </c>
@@ -14545,7 +14544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="10">
         <v>89000</v>
       </c>
@@ -14568,7 +14567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="10">
         <v>92000</v>
       </c>
@@ -14591,7 +14590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="10">
         <v>63000</v>
       </c>
@@ -14614,7 +14613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="10">
         <v>84000</v>
       </c>
@@ -14637,7 +14636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="10">
         <v>51000</v>
       </c>
@@ -14660,7 +14659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="10">
         <v>104000</v>
       </c>
@@ -14683,7 +14682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="10">
         <v>102000</v>
       </c>
@@ -14706,7 +14705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="10">
         <v>58000</v>
       </c>
@@ -14729,7 +14728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="10">
         <v>74000</v>
       </c>
@@ -14752,7 +14751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="10">
         <v>87000</v>
       </c>
@@ -14775,7 +14774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="10">
         <v>78000</v>
       </c>
@@ -14798,7 +14797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="624" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="10">
         <v>99000</v>
       </c>
@@ -14821,7 +14820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="10">
         <v>74000</v>
       </c>
@@ -14844,7 +14843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="10">
         <v>102000</v>
       </c>
@@ -14867,7 +14866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="10">
         <v>64000</v>
       </c>
@@ -14890,7 +14889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="10">
         <v>76000</v>
       </c>
@@ -14913,7 +14912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="10">
         <v>64000</v>
       </c>
@@ -14936,7 +14935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="10">
         <v>58000</v>
       </c>
@@ -14959,7 +14958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="10">
         <v>77000</v>
       </c>
@@ -14982,7 +14981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="10">
         <v>65000</v>
       </c>
@@ -15005,7 +15004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="10">
         <v>126000</v>
       </c>
@@ -15028,7 +15027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="634" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="10">
         <v>66000</v>
       </c>
@@ -15051,7 +15050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="10">
         <v>69000</v>
       </c>
@@ -15074,7 +15073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="636" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="10">
         <v>93000</v>
       </c>
@@ -15097,7 +15096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="10">
         <v>97000</v>
       </c>
@@ -15120,7 +15119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="10">
         <v>93000</v>
       </c>
@@ -15143,7 +15142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="10">
         <v>128000</v>
       </c>
@@ -15166,7 +15165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="10">
         <v>61000</v>
       </c>
@@ -15189,7 +15188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="10">
         <v>57000</v>
       </c>
@@ -15212,7 +15211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="642" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="10">
         <v>65000</v>
       </c>
@@ -15235,7 +15234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="10">
         <v>49000</v>
       </c>
@@ -15258,7 +15257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="10">
         <v>68000</v>
       </c>
@@ -15281,7 +15280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="10">
         <v>105000</v>
       </c>
@@ -15304,7 +15303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="10">
         <v>55000</v>
       </c>
@@ -15327,7 +15326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="10">
         <v>99000</v>
       </c>
@@ -15350,7 +15349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="10">
         <v>63000</v>
       </c>
@@ -15373,7 +15372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="10">
         <v>127000</v>
       </c>
@@ -15396,7 +15395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="650" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="10">
         <v>59000</v>
       </c>
@@ -15419,7 +15418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="10">
         <v>124000</v>
       </c>
@@ -15442,7 +15441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="10">
         <v>85000</v>
       </c>
@@ -15465,7 +15464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="653" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="10">
         <v>78000</v>
       </c>
@@ -15488,7 +15487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="10">
         <v>60000</v>
       </c>
@@ -15511,7 +15510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="655" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="10">
         <v>69000</v>
       </c>
@@ -15534,7 +15533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="656" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="10">
         <v>138000</v>
       </c>
@@ -15557,7 +15556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="10">
         <v>76000</v>
       </c>
@@ -15580,7 +15579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="10">
         <v>134000</v>
       </c>
@@ -15603,7 +15602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="10">
         <v>76000</v>
       </c>
@@ -15626,7 +15625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="10">
         <v>59000</v>
       </c>
@@ -15649,7 +15648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="10">
         <v>84000</v>
       </c>
@@ -15672,7 +15671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="10">
         <v>99000</v>
       </c>
@@ -15695,7 +15694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="10">
         <v>59000</v>
       </c>
@@ -15718,7 +15717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="10">
         <v>149000</v>
       </c>
@@ -15741,7 +15740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="10">
         <v>66000</v>
       </c>
@@ -15764,7 +15763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="10">
         <v>74000</v>
       </c>
@@ -15787,7 +15786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="10">
         <v>31000</v>
       </c>
@@ -15810,7 +15809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="10">
         <v>208000</v>
       </c>
@@ -15833,7 +15832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="10">
         <v>103000</v>
       </c>
@@ -15856,7 +15855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="10">
         <v>169000</v>
       </c>
@@ -15879,7 +15878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="671" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="10">
         <v>201000</v>
       </c>
@@ -15902,7 +15901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="10">
         <v>100000</v>
       </c>
@@ -15925,7 +15924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="10">
         <v>94000</v>
       </c>
@@ -15948,7 +15947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="10">
         <v>81000</v>
       </c>
@@ -15971,7 +15970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="675" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="10">
         <v>7000</v>
       </c>
@@ -15994,7 +15993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="676" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="10">
         <v>52000</v>
       </c>
@@ -16017,7 +16016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="10">
         <v>67000</v>
       </c>
@@ -16040,7 +16039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="10">
         <v>149000</v>
       </c>
@@ -16063,7 +16062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="679" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="10">
         <v>105000</v>
       </c>
@@ -16086,7 +16085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="10">
         <v>81000</v>
       </c>
@@ -16109,7 +16108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="10">
         <v>58000</v>
       </c>
@@ -16132,7 +16131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="682" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="10">
         <v>89000</v>
       </c>
@@ -16155,7 +16154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="10">
         <v>84000</v>
       </c>
@@ -16178,7 +16177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="10">
         <v>57000</v>
       </c>
@@ -16201,7 +16200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="10">
         <v>75000</v>
       </c>
@@ -16224,7 +16223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="10">
         <v>184000</v>
       </c>
@@ -16247,7 +16246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="10">
         <v>203000</v>
       </c>
@@ -16270,7 +16269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="10">
         <v>93000</v>
       </c>
@@ -16293,7 +16292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="10">
         <v>86000</v>
       </c>
@@ -16316,7 +16315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="10">
         <v>164000</v>
       </c>
@@ -16339,7 +16338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="10">
         <v>37000</v>
       </c>
@@ -16362,7 +16361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="10">
         <v>180000</v>
       </c>
@@ -16385,7 +16384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="10">
         <v>80000</v>
       </c>
@@ -16408,7 +16407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="10">
         <v>155000</v>
       </c>
@@ -16431,7 +16430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="10">
         <v>33000</v>
       </c>
@@ -16454,7 +16453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="10">
         <v>186000</v>
       </c>
@@ -16477,7 +16476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="10">
         <v>61000</v>
       </c>
@@ -16500,7 +16499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="10">
         <v>57000</v>
       </c>
@@ -16523,7 +16522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="10">
         <v>178000</v>
       </c>
@@ -16546,7 +16545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="700" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="10">
         <v>133000</v>
       </c>
@@ -16569,7 +16568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="10">
         <v>146000</v>
       </c>
@@ -16592,7 +16591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="10">
         <v>59000</v>
       </c>
@@ -16615,7 +16614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="10">
         <v>86000</v>
       </c>
@@ -16638,7 +16637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="10">
         <v>70000</v>
       </c>
@@ -16661,7 +16660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="10">
         <v>181000</v>
       </c>
@@ -16684,7 +16683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="10">
         <v>90000</v>
       </c>
@@ -16707,7 +16706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="707" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="10">
         <v>177000</v>
       </c>
@@ -16753,7 +16752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="10">
         <v>175000</v>
       </c>
@@ -16776,7 +16775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="10">
         <v>166000</v>
       </c>
@@ -16799,7 +16798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="10">
         <v>208000</v>
       </c>
@@ -16822,7 +16821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="10">
         <v>6000</v>
       </c>
@@ -16845,7 +16844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="10">
         <v>27000</v>
       </c>
@@ -16868,7 +16867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="10">
         <v>114000</v>
       </c>
@@ -16891,7 +16890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="10">
         <v>179000</v>
       </c>
@@ -16914,7 +16913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="10">
         <v>169000</v>
       </c>
@@ -16937,7 +16936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="10">
         <v>47000</v>
       </c>
@@ -16983,7 +16982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="10">
         <v>28000</v>
       </c>
@@ -17006,7 +17005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="10">
         <v>170000</v>
       </c>
@@ -17029,7 +17028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="10">
         <v>160000</v>
       </c>
@@ -17052,7 +17051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="10">
         <v>210000</v>
       </c>
@@ -17075,7 +17074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="723" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="10">
         <v>182000</v>
       </c>
@@ -17098,7 +17097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="10">
         <v>192000</v>
       </c>
@@ -17121,7 +17120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="725" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="10">
         <v>52000</v>
       </c>
@@ -17144,7 +17143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="10">
         <v>59000</v>
       </c>
@@ -17167,7 +17166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="10">
         <v>32000</v>
       </c>
@@ -17190,7 +17189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="10">
         <v>173000</v>
       </c>
@@ -17213,7 +17212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="729" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="10">
         <v>44000</v>
       </c>
@@ -17236,7 +17235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="10">
         <v>102000</v>
       </c>
@@ -17282,7 +17281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="10">
         <v>81000</v>
       </c>
@@ -17328,7 +17327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="10">
         <v>227000</v>
       </c>
@@ -17351,7 +17350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="10">
         <v>165000</v>
       </c>
@@ -17374,7 +17373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="736" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="10">
         <v>66000</v>
       </c>
@@ -17397,7 +17396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="737" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="10">
         <v>72000</v>
       </c>
@@ -17420,7 +17419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="10">
         <v>106000</v>
       </c>
@@ -17443,7 +17442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="10">
         <v>100000</v>
       </c>
@@ -17466,7 +17465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="10">
         <v>74000</v>
       </c>
@@ -17489,7 +17488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="741" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="10">
         <v>84000</v>
       </c>
@@ -17512,7 +17511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="10">
         <v>88000</v>
       </c>
@@ -17535,7 +17534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="10">
         <v>65000</v>
       </c>
@@ -17558,7 +17557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="10">
         <v>54000</v>
       </c>
@@ -17581,7 +17580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="10">
         <v>94000</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="10">
         <v>95000</v>
       </c>
@@ -17627,7 +17626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="10">
         <v>87000</v>
       </c>
@@ -17650,7 +17649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="10">
         <v>84000</v>
       </c>
@@ -17673,7 +17672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="10">
         <v>75000</v>
       </c>
@@ -17696,7 +17695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="10">
         <v>50000</v>
       </c>
@@ -17719,7 +17718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="10">
         <v>67000</v>
       </c>
@@ -17742,7 +17741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="10">
         <v>70000</v>
       </c>
@@ -17765,7 +17764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="10">
         <v>93000</v>
       </c>
@@ -17788,7 +17787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="10">
         <v>87000</v>
       </c>
@@ -17811,7 +17810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="10">
         <v>87000</v>
       </c>
@@ -17834,7 +17833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="10">
         <v>86000</v>
       </c>
@@ -17857,7 +17856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="10">
         <v>86000</v>
       </c>
@@ -17880,7 +17879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="10">
         <v>80000</v>
       </c>
@@ -17903,7 +17902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="10">
         <v>67000</v>
       </c>
@@ -17926,7 +17925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="10">
         <v>83000</v>
       </c>
@@ -17949,7 +17948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="10">
         <v>82000</v>
       </c>
@@ -17972,7 +17971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="10">
         <v>81000</v>
       </c>
@@ -17995,7 +17994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="10">
         <v>85000</v>
       </c>
@@ -18018,7 +18017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="764" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="10">
         <v>72000</v>
       </c>
@@ -18041,7 +18040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="765" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="10">
         <v>94000</v>
       </c>
@@ -18064,7 +18063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="10">
         <v>90000</v>
       </c>
@@ -18087,7 +18086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="10">
         <v>112000</v>
       </c>
@@ -18110,7 +18109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="10">
         <v>48000</v>
       </c>
@@ -18133,7 +18132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="10">
         <v>51000</v>
       </c>
@@ -18156,7 +18155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="10">
         <v>73000</v>
       </c>
@@ -18179,7 +18178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="10">
         <v>84000</v>
       </c>
@@ -18202,7 +18201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="10">
         <v>41000</v>
       </c>
@@ -18225,7 +18224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="10">
         <v>88000</v>
       </c>
@@ -18248,7 +18247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="10">
         <v>79000</v>
       </c>
@@ -18271,7 +18270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="10">
         <v>96000</v>
       </c>
@@ -18294,7 +18293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="10">
         <v>65000</v>
       </c>
@@ -18317,7 +18316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="10">
         <v>69000</v>
       </c>
@@ -18340,7 +18339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="10">
         <v>74000</v>
       </c>
@@ -18363,7 +18362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="10">
         <v>61000</v>
       </c>
@@ -18386,7 +18385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="10">
         <v>57000</v>
       </c>
@@ -18409,7 +18408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="10">
         <v>88000</v>
       </c>
@@ -18432,7 +18431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="10">
         <v>82000</v>
       </c>
@@ -18455,7 +18454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="10">
         <v>73000</v>
       </c>
@@ -18478,7 +18477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="10">
         <v>161000</v>
       </c>
@@ -18501,7 +18500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="10">
         <v>157000</v>
       </c>
@@ -18524,7 +18523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="10">
         <v>185000</v>
       </c>
@@ -18547,7 +18546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="10">
         <v>155000</v>
       </c>
@@ -18570,7 +18569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="788" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="10">
         <v>235000</v>
       </c>
@@ -18593,7 +18592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="10">
         <v>106000</v>
       </c>
@@ -18616,7 +18615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="10">
         <v>187000</v>
       </c>
@@ -18639,7 +18638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="10">
         <v>173000</v>
       </c>
@@ -18662,7 +18661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="792" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="10">
         <v>134000</v>
       </c>
@@ -18685,7 +18684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="793" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="10">
         <v>154000</v>
       </c>
@@ -18708,7 +18707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="10">
         <v>173000</v>
       </c>
@@ -18731,7 +18730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="10">
         <v>90000</v>
       </c>
@@ -18754,7 +18753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="10">
         <v>164000</v>
       </c>
@@ -18777,7 +18776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="10">
         <v>180000</v>
       </c>
@@ -18800,7 +18799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="10">
         <v>169000</v>
       </c>
@@ -18823,7 +18822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="10">
         <v>204000</v>
       </c>
@@ -18846,7 +18845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="10">
         <v>153000</v>
       </c>
@@ -18869,7 +18868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="801" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="10">
         <v>151000</v>
       </c>
@@ -18915,7 +18914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="10">
         <v>168000</v>
       </c>
@@ -18938,7 +18937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="10">
         <v>133000</v>
       </c>
@@ -18961,7 +18960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="10">
         <v>175000</v>
       </c>
@@ -18984,7 +18983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="10">
         <v>155000</v>
       </c>
@@ -19007,7 +19006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="807" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="10">
         <v>140000</v>
       </c>
@@ -19030,7 +19029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="808" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="10">
         <v>143000</v>
       </c>
@@ -19053,7 +19052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="10">
         <v>144000</v>
       </c>
@@ -19076,7 +19075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="10">
         <v>140000</v>
       </c>
@@ -19099,7 +19098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="10">
         <v>132000</v>
       </c>
@@ -19122,7 +19121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="10">
         <v>203000</v>
       </c>
@@ -19145,7 +19144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="813" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="10">
         <v>203000</v>
       </c>
@@ -19168,7 +19167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="814" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="10">
         <v>171000</v>
       </c>
@@ -19191,7 +19190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="815" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="10">
         <v>113000</v>
       </c>
@@ -19214,7 +19213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="10">
         <v>86000</v>
       </c>
@@ -19237,7 +19236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="10">
         <v>109000</v>
       </c>
@@ -19260,7 +19259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="10">
         <v>153000</v>
       </c>
@@ -19283,7 +19282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="819" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="10">
         <v>173000</v>
       </c>
@@ -19306,7 +19305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="820" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="10">
         <v>127000</v>
       </c>
@@ -19329,7 +19328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="10">
         <v>96000</v>
       </c>
@@ -19352,7 +19351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="822" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="10">
         <v>168000</v>
       </c>
@@ -19375,7 +19374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="10">
         <v>126000</v>
       </c>
@@ -19444,7 +19443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="826" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="10">
         <v>114000</v>
       </c>
@@ -19513,7 +19512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="10">
         <v>181000</v>
       </c>
@@ -19536,7 +19535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="830" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="10">
         <v>130000</v>
       </c>
@@ -19559,7 +19558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="10">
         <v>108000</v>
       </c>
@@ -19582,7 +19581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="10">
         <v>186000</v>
       </c>
@@ -19605,7 +19604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="10">
         <v>186000</v>
       </c>
@@ -19628,7 +19627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="10">
         <v>118000</v>
       </c>
@@ -19651,7 +19650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="10">
         <v>126000</v>
       </c>
@@ -19674,7 +19673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="10">
         <v>179000</v>
       </c>
@@ -19697,7 +19696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="10">
         <v>174000</v>
       </c>
@@ -19720,7 +19719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="10">
         <v>173000</v>
       </c>
@@ -19743,7 +19742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="839" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="10">
         <v>155000</v>
       </c>
@@ -19766,7 +19765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="10">
         <v>108000</v>
       </c>
@@ -19789,7 +19788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="10">
         <v>204000</v>
       </c>
@@ -19812,7 +19811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="10">
         <v>191000</v>
       </c>
@@ -19835,7 +19834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="10">
         <v>205000</v>
       </c>
@@ -19858,7 +19857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="10">
         <v>181000</v>
       </c>
@@ -19881,7 +19880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="10">
         <v>157000</v>
       </c>
@@ -19904,7 +19903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="10">
         <v>187000</v>
       </c>
@@ -19927,7 +19926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="10">
         <v>193000</v>
       </c>
@@ -19950,7 +19949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="10">
         <v>156000</v>
       </c>
@@ -19973,7 +19972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="10">
         <v>132000</v>
       </c>
@@ -19996,7 +19995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="10">
         <v>123000</v>
       </c>
@@ -20019,7 +20018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="10">
         <v>173000</v>
       </c>
@@ -20042,7 +20041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="852" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="10">
         <v>189000</v>
       </c>
@@ -20065,7 +20064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="853" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="10">
         <v>184000</v>
       </c>
@@ -20088,7 +20087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="854" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="10">
         <v>161000</v>
       </c>
@@ -20111,7 +20110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="10">
         <v>94000</v>
       </c>
@@ -20134,7 +20133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="10">
         <v>187000</v>
       </c>
@@ -20157,7 +20156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="857" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="10">
         <v>174000</v>
       </c>
@@ -20180,7 +20179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="10">
         <v>135000</v>
       </c>
@@ -20203,7 +20202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="10">
         <v>151000</v>
       </c>
@@ -20226,7 +20225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="10">
         <v>154000</v>
       </c>
@@ -20249,7 +20248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="10">
         <v>181000</v>
       </c>
@@ -20272,7 +20271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="862" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="10">
         <v>122000</v>
       </c>
@@ -20295,7 +20294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="10">
         <v>194000</v>
       </c>
@@ -20318,7 +20317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="10">
         <v>173000</v>
       </c>
@@ -20341,7 +20340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="10">
         <v>98000</v>
       </c>
@@ -20364,7 +20363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="866" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="10">
         <v>174000</v>
       </c>
@@ -20387,7 +20386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="10">
         <v>207000</v>
       </c>
@@ -20433,7 +20432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="10">
         <v>193000</v>
       </c>
@@ -20456,7 +20455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="870" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="10">
         <v>204000</v>
       </c>
@@ -20479,7 +20478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="10">
         <v>171000</v>
       </c>
@@ -20525,7 +20524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="10">
         <v>149000</v>
       </c>
@@ -20571,7 +20570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="10">
         <v>179000</v>
       </c>
@@ -20594,7 +20593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="10">
         <v>166000</v>
       </c>
@@ -20617,7 +20616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="10">
         <v>225000</v>
       </c>
@@ -20640,7 +20639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="10">
         <v>180000</v>
       </c>
@@ -20663,7 +20662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="10">
         <v>213000</v>
       </c>
@@ -20686,7 +20685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="10">
         <v>175000</v>
       </c>
@@ -20709,7 +20708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="10">
         <v>62000</v>
       </c>
@@ -20732,7 +20731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="882" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="10">
         <v>95000</v>
       </c>
@@ -20755,7 +20754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="10">
         <v>163000</v>
       </c>
@@ -20801,7 +20800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="885" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="10">
         <v>31000</v>
       </c>
@@ -20824,7 +20823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="10">
         <v>12000</v>
       </c>
@@ -20847,7 +20846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="10">
         <v>22000</v>
       </c>
@@ -20870,7 +20869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="10">
         <v>162000</v>
       </c>
@@ -20893,7 +20892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="10">
         <v>97000</v>
       </c>
@@ -20916,7 +20915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="10">
         <v>164000</v>
       </c>
@@ -20939,7 +20938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="10">
         <v>242000</v>
       </c>
@@ -20985,7 +20984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="10">
         <v>197000</v>
       </c>
@@ -21008,7 +21007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="10">
         <v>188000</v>
       </c>
@@ -21031,7 +21030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="10">
         <v>63000</v>
       </c>
@@ -21054,7 +21053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="10">
         <v>195000</v>
       </c>
@@ -21077,7 +21076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="10">
         <v>181000</v>
       </c>
@@ -21100,7 +21099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="898" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="10">
         <v>45000</v>
       </c>
@@ -21123,7 +21122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="10">
         <v>61000</v>
       </c>
@@ -21146,7 +21145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="900" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="10">
         <v>184000</v>
       </c>
@@ -21169,7 +21168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="10">
         <v>199000</v>
       </c>
@@ -21192,7 +21191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="10">
         <v>120000</v>
       </c>
@@ -21215,7 +21214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="10">
         <v>58000</v>
       </c>
@@ -21238,7 +21237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="10">
         <v>143000</v>
       </c>
@@ -21261,7 +21260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="10">
         <v>107000</v>
       </c>
@@ -21284,7 +21283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="906" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="10">
         <v>159000</v>
       </c>
@@ -21307,7 +21306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="907" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="10">
         <v>133000</v>
       </c>
@@ -21330,7 +21329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="908" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="10">
         <v>129000</v>
       </c>
@@ -21353,7 +21352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="909" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="10">
         <v>39000</v>
       </c>
@@ -21376,7 +21375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="10">
         <v>96000</v>
       </c>
@@ -21399,7 +21398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="10">
         <v>56000</v>
       </c>
@@ -21422,7 +21421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="10">
         <v>96000</v>
       </c>
@@ -21445,7 +21444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="913" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="10">
         <v>157000</v>
       </c>
@@ -21468,7 +21467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="10">
         <v>53000</v>
       </c>
@@ -21491,7 +21490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="10">
         <v>198000</v>
       </c>
@@ -21514,7 +21513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="10">
         <v>103000</v>
       </c>
@@ -21537,7 +21536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="10">
         <v>94000</v>
       </c>
@@ -21560,7 +21559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="10">
         <v>128000</v>
       </c>
@@ -21583,7 +21582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="10">
         <v>76000</v>
       </c>
@@ -21606,7 +21605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="920" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="10">
         <v>184000</v>
       </c>
@@ -21629,7 +21628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="10">
         <v>76000</v>
       </c>
@@ -21652,7 +21651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="10">
         <v>70000</v>
       </c>
@@ -21675,7 +21674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="10">
         <v>98000</v>
       </c>
@@ -21698,7 +21697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="10">
         <v>112000</v>
       </c>
@@ -21721,7 +21720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="10">
         <v>129000</v>
       </c>
@@ -21744,7 +21743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="10">
         <v>194000</v>
       </c>
@@ -21767,7 +21766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="10">
         <v>116000</v>
       </c>
@@ -21790,7 +21789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="10">
         <v>153000</v>
       </c>
@@ -21813,7 +21812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="10">
         <v>95000</v>
       </c>
@@ -21836,7 +21835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="10">
         <v>132000</v>
       </c>
@@ -21859,7 +21858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="931" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="10">
         <v>105000</v>
       </c>
@@ -21882,7 +21881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="932" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="10">
         <v>90000</v>
       </c>
@@ -21905,7 +21904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="933" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="10">
         <v>54000</v>
       </c>
@@ -21928,7 +21927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="934" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="10">
         <v>124000</v>
       </c>
@@ -21951,7 +21950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="935" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="10">
         <v>67000</v>
       </c>
@@ -21974,7 +21973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="936" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="10">
         <v>188000</v>
       </c>
@@ -21997,7 +21996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="937" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="10">
         <v>98000</v>
       </c>
@@ -22020,7 +22019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="938" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="10">
         <v>108000</v>
       </c>
@@ -22043,7 +22042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="939" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="10">
         <v>59000</v>
       </c>
@@ -22066,7 +22065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="940" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="10">
         <v>98000</v>
       </c>
@@ -22089,7 +22088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="941" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="10">
         <v>63000</v>
       </c>
@@ -22112,7 +22111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="942" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="10">
         <v>190000</v>
       </c>
@@ -22135,7 +22134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="943" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="10">
         <v>77000</v>
       </c>
@@ -22158,7 +22157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="944" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="10">
         <v>192000</v>
       </c>
@@ -22181,7 +22180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="945" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="10">
         <v>46000</v>
       </c>
@@ -22204,7 +22203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="946" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="10">
         <v>86000</v>
       </c>
@@ -22227,7 +22226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="947" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="10">
         <v>82000</v>
       </c>
@@ -22250,7 +22249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="948" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="10">
         <v>78000</v>
       </c>
@@ -22273,7 +22272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="949" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="10">
         <v>82000</v>
       </c>
@@ -22319,7 +22318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="10">
         <v>127000</v>
       </c>
@@ -22342,7 +22341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="952" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="10">
         <v>54000</v>
       </c>
@@ -22365,7 +22364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="10">
         <v>106000</v>
       </c>
@@ -22388,7 +22387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="954" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="10">
         <v>101000</v>
       </c>
@@ -22411,7 +22410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="955" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="10">
         <v>89000</v>
       </c>
@@ -22434,7 +22433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="10">
         <v>65000</v>
       </c>
@@ -22457,7 +22456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="957" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="10">
         <v>91000</v>
       </c>
@@ -22480,7 +22479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="10">
         <v>75000</v>
       </c>
@@ -22526,7 +22525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="960" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="10">
         <v>110000</v>
       </c>
@@ -22549,7 +22548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="10">
         <v>110000</v>
       </c>
@@ -22572,7 +22571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="10">
         <v>71000</v>
       </c>
@@ -22595,7 +22594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="10">
         <v>98000</v>
       </c>
@@ -22618,7 +22617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="964" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="10">
         <v>108000</v>
       </c>
@@ -22641,7 +22640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="965" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="10">
         <v>42000</v>
       </c>
@@ -22687,7 +22686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="967" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="10">
         <v>104000</v>
       </c>
@@ -22710,7 +22709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="968" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="10">
         <v>57000</v>
       </c>
@@ -22756,7 +22755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="970" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="10">
         <v>163000</v>
       </c>
@@ -22779,7 +22778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="971" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="10">
         <v>110000</v>
       </c>
@@ -22802,7 +22801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="972" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="10">
         <v>150000</v>
       </c>
@@ -22825,7 +22824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="973" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="10">
         <v>149000</v>
       </c>
@@ -22848,7 +22847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="974" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="10">
         <v>207000</v>
       </c>
@@ -22871,7 +22870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="10">
         <v>169000</v>
       </c>
@@ -22894,7 +22893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="976" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="10">
         <v>147000</v>
       </c>
@@ -22917,7 +22916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="10">
         <v>164000</v>
       </c>
@@ -22940,7 +22939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="978" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="10">
         <v>160000</v>
       </c>
@@ -22963,7 +22962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="10">
         <v>166000</v>
       </c>
@@ -22986,7 +22985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="10">
         <v>157000</v>
       </c>
@@ -23009,7 +23008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="10">
         <v>156000</v>
       </c>
@@ -23032,7 +23031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="982" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="10">
         <v>149000</v>
       </c>
@@ -23055,7 +23054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="983" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="10">
         <v>66000</v>
       </c>
@@ -23078,7 +23077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="10">
         <v>108000</v>
       </c>
@@ -23101,7 +23100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="10">
         <v>60000</v>
       </c>
@@ -23124,7 +23123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="10">
         <v>201000</v>
       </c>
@@ -23170,7 +23169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="10">
         <v>172000</v>
       </c>
@@ -23193,7 +23192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="10">
         <v>174000</v>
       </c>
@@ -23216,7 +23215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="990" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="10">
         <v>159000</v>
       </c>
@@ -23262,7 +23261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="10">
         <v>144000</v>
       </c>
@@ -23285,7 +23284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="993" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="10">
         <v>159000</v>
       </c>
@@ -23308,7 +23307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="994" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="10">
         <v>121000</v>
       </c>
@@ -23331,7 +23330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="995" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="10">
         <v>67000</v>
       </c>
@@ -23354,7 +23353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="10">
         <v>151000</v>
       </c>
@@ -23377,7 +23376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="997" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="10">
         <v>158000</v>
       </c>
@@ -23400,7 +23399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="998" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="10">
         <v>45000</v>
       </c>
@@ -23423,7 +23422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="999" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="10">
         <v>108000</v>
       </c>
@@ -23446,7 +23445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="10">
         <v>32000</v>
       </c>
@@ -23469,7 +23468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="10">
         <v>130000</v>
       </c>
@@ -23494,20 +23493,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1001">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="70"/>
-        <filter val="71"/>
-        <filter val="72"/>
-        <filter val="73"/>
-        <filter val="74"/>
-        <filter val="75"/>
-        <filter val="76"/>
-        <filter val="77"/>
-        <filter val="78"/>
-        <filter val="79"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:G1001">
       <sortCondition ref="B371"/>
     </sortState>
